--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12057000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11868000</v>
+      </c>
+      <c r="F8" s="3">
         <v>12397000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11760000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10816000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10998000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10794000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10465000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10037000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10433000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10325000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9930000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9434000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10115000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2874000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3928000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3336000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3018000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3276000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3197000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3414000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3178000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3378000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3249000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3000000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2876000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3300000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8813000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8994000</v>
+      </c>
+      <c r="F10" s="3">
         <v>8469000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8424000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>7798000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7722000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7597000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7051000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6859000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7055000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7076000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6930000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6558000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6815000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2192000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2376000</v>
+      </c>
+      <c r="F12" s="3">
         <v>3203000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2186000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1931000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2061000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2072000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1927000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1794000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2051000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4136000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1740000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1796000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1265000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1162000</v>
+      </c>
+      <c r="F14" s="3">
         <v>295000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>159000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>187000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>336000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>589000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>576000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1504000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>567000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>436000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>257000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>291000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4335000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8148000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9300000</v>
+      </c>
+      <c r="F17" s="3">
         <v>10015000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8361000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7561000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8284000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8301000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8427000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8983000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8572000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10211000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7433000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7373000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11464000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3909000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2568000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2382000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3399000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3255000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2714000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2493000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2038000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1054000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1861000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>114000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2497000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2061000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>442000</v>
+      </c>
+      <c r="F20" s="3">
         <v>196000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>93000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>21000</v>
       </c>
       <c r="G20" s="3">
         <v>93000</v>
       </c>
       <c r="H20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>93000</v>
+      </c>
+      <c r="J20" s="3">
         <v>362000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>242000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>476000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>208000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>275000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>135000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>124000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>173000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4871000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3946000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3423000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4465000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4174000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3805000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4013000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3506000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2667000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3197000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1543000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3794000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3378000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>219000</v>
+      </c>
+      <c r="F22" s="3">
         <v>231000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>233000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>203000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>190000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>194000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>185000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>190000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>189000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>193000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>182000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>180000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3838000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="F23" s="3">
         <v>2347000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3259000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3067000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2604000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2665000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2086000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1345000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1879000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2439000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2003000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>378000</v>
+      </c>
+      <c r="F24" s="3">
         <v>440000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>615000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>138000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>537000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>707000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>370000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>604000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>317000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>251000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>488000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>447000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-769000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2413000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1907000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2644000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2929000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2067000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1958000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1716000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>741000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1562000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-51000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1951000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1556000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-587000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="F27" s="3">
         <v>1901000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2670000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2982000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2116000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1950000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1707000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>736000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1554000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1946000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1551000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-595000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1583,31 +1704,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-67000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>-2600000</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-2600000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-196000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-93000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-21000</v>
       </c>
       <c r="G32" s="3">
         <v>-93000</v>
       </c>
       <c r="H32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-362000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-242000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-476000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-208000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-275000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-135000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-124000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-173000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="F33" s="3">
         <v>1901000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2670000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2915000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1827000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1950000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1707000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>736000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1946000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1551000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-595000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="F35" s="3">
         <v>1901000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2670000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2915000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1827000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1950000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1707000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>736000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1946000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1551000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-595000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7425000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9676000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7869000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6659000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8076000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7965000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7826000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5310000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4483000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6092000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7901000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7786000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11708000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6515000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>774000</v>
+      </c>
+      <c r="F42" s="3">
         <v>149000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>446000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>722000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>899000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2459000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>2284000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2863000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2406000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3294000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>4181000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>3541000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7826000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8182000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6778000</v>
+      </c>
+      <c r="F43" s="3">
         <v>8442000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>7964000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7608000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7071000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7374000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7287000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7245000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6873000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7671000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7439000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>7066000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7018000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5846000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5978000</v>
+      </c>
+      <c r="F44" s="3">
         <v>5855000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5847000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5712000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5440000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5416000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5178000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>5382000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5096000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5263000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>5407000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>5146000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4866000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4714000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4277000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3827000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3382000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3233000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4500000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3761000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4005000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4299000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3790000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3354000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4069000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4389000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26174000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>27483000</v>
+      </c>
+      <c r="F46" s="3">
         <v>26142000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24298000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25351000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25875000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>26836000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>24064000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24085000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>24766000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>27919000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>28167000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>31530000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>30614000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1469000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2111000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3779000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>5621000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>6233000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7606000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>10033000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>11033000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>12892000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>12206000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>12138000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11896000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>12131000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15269000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16126000</v>
+      </c>
+      <c r="F48" s="3">
         <v>15372000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14925000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13506000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>13291000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12755000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12626000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12561000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12439000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12189000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12094000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12042000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12026000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35863000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33621000</v>
+      </c>
+      <c r="F49" s="3">
         <v>31787000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>32871000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>29169000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>29684000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>30433000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>31172000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>31804000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>32467000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>33478000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>34477000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>35221000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>35467000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7052000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5698000</v>
+      </c>
+      <c r="F52" s="3">
         <v>7919000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8092000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8707000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7554000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7500000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7145000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6558000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5308000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5884000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5928000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5872000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5139000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84913000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>84397000</v>
+      </c>
+      <c r="F54" s="3">
         <v>83331000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>83965000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>82354000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>82637000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>85130000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>85040000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>86041000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>87872000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>91676000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>92804000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>96561000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>95377000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3572000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3738000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3198000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3142000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3018000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3318000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3091000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3024000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3162000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3102000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2620000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2934000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2484000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2807000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6361000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3411000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3816000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3175000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5308000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3656000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3379000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2055000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3057000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5157000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3181000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5037000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>568000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13550000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14872000</v>
+      </c>
+      <c r="F59" s="3">
         <v>14075000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13127000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12350000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13580000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11839000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11725000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11743000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12455000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11690000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12643000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>12302000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13829000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23483000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22220000</v>
+      </c>
+      <c r="F60" s="3">
         <v>20684000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20085000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>18543000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>22206000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18586000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18128000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16960000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18614000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19467000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>18758000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>19823000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17204000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21637000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22736000</v>
+      </c>
+      <c r="F61" s="3">
         <v>22677000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>22771000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>22721000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>19806000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>19936000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>19959000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>21501000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21353000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>21838000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>21706000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>23437000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>24274000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13493000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13440000</v>
+      </c>
+      <c r="F62" s="3">
         <v>13045000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13372000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13420000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>13743000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>13952000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>14187000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13679000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13336000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11872000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>12628000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13213000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13591000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58708000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>58490000</v>
+      </c>
+      <c r="F66" s="3">
         <v>56493000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>56330000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>54815000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>55936000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>52708000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>52511000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>52373000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>53536000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>53428000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>53341000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>56724000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>55289000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48272000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>46602000</v>
+      </c>
+      <c r="F72" s="3">
         <v>45804000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>45295000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>44065000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>42579000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>42189000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>41523000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>41107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>41350000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>43701000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>45046000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>44387000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>44133000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26205000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>25907000</v>
+      </c>
+      <c r="F76" s="3">
         <v>26838000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>27635000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27539000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26701000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>32422000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32529000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>33668000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34336000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>38248000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>39463000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>39837000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>40088000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="F81" s="3">
         <v>1901000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2670000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2915000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1827000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1950000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1707000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>736000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1946000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1551000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-595000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>936000</v>
+      </c>
+      <c r="F83" s="3">
         <v>845000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>973000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>898000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>998000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1158000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1226000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1137000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1128000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1154000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1162000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1193000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1155000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4794000</v>
+      </c>
+      <c r="F89" s="3">
         <v>4226000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3084000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1336000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3592000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2793000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>3382000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1155000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4015000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3317000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>286000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3632000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-986000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1137000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-959000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-782000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-595000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-929000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-653000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-583000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-450000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-715000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-441000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-393000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-339000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-551000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1628000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-763000</v>
+      </c>
+      <c r="F94" s="3">
         <v>191000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>368000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2178000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1660000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>673000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-197000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-58000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>671000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3193000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1551000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1405000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1299000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1490000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2011000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>536000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1461000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-54000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-65000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-262000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>154000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>79000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>106000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>253000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-484000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2474000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2063000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1211000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>110000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>139000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2516000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>826000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>115000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5193000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10872000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12057000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11868000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12397000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11760000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10816000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10998000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10794000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10465000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10037000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10433000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10325000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9930000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9434000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10115000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3134000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3244000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2874000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3928000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3336000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3018000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3276000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3197000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3414000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3178000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3378000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3249000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3000000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2876000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3300000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7738000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8813000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8994000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8469000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8424000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7798000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7722000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7597000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7051000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6859000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7055000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7076000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6930000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6558000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6815000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2092000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2192000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2376000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3203000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2186000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1931000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2061000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2072000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1927000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1794000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2051000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4136000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1740000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1796000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1265000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E14" s="3">
         <v>168000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1162000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>295000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>159000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>187000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>336000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>589000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>576000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1504000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>567000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>436000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>257000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>291000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4335000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7743000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8148000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9300000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10015000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8361000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7561000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8284000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8301000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8427000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8983000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8572000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10211000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7433000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7373000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11464000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3129000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3909000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2568000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2382000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3399000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3255000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2714000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2493000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2038000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1054000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1861000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2497000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E20" s="3">
         <v>141000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>442000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>196000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>93000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>93000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>362000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>242000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>476000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>208000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>275000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>135000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>124000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>173000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4776000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4871000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3946000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3423000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4465000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4174000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3805000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4013000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3506000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2667000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3197000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1543000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3794000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3378000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-21000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E22" s="3">
         <v>212000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>219000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>231000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>233000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>203000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>190000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>194000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>185000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>190000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>189000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>193000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>182000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3838000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2791000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2347000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3259000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3067000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2604000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2665000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2086000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1345000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1879000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2439000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2003000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E24" s="3">
         <v>619000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>378000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>440000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>615000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>138000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>537000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>707000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>370000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>604000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>317000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>251000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>488000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>447000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-769000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3010000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3219000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2413000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1907000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2644000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2929000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2067000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1958000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1716000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>741000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1562000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-51000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1951000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-587000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3219000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2406000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1901000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2670000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2982000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1950000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1707000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>736000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1554000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-56000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1946000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-595000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1704,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-50000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-67000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-599000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-141000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-442000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-196000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-93000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-93000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-362000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-242000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-476000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-208000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-275000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-135000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-173000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3219000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2356000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1901000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2670000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2915000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1827000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1950000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1707000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>736000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-56000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1946000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-595000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3219000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2356000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1901000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2670000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2915000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1827000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1950000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1707000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>736000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-56000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1946000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-595000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11103000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7425000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9676000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7869000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6659000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8076000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7965000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7826000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5310000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4483000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6092000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7901000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7786000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11708000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6515000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>774000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>149000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>446000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>722000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>899000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2459000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2284000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2863000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2406000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3294000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4181000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3541000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7826000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8182000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6778000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8442000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7964000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7608000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7071000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7374000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7287000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7245000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6873000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7671000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7439000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7066000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7018000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6056000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5846000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5978000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5855000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5847000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5712000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5440000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5416000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5178000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5382000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5096000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5263000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5407000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5146000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4866000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4607000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4714000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4277000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3827000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3382000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3233000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3761000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4005000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4299000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3790000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3354000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4069000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4389000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29343000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26174000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27483000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26142000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24298000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>25351000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25875000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26836000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24064000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24085000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24766000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27919000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28167000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31530000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30614000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="E47" s="3">
         <v>555000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1469000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2111000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3779000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5621000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6233000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7606000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10033000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11033000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12892000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12206000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12138000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11896000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12131000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15789000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15269000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16126000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15372000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14925000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13506000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13291000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12755000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12626000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12561000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12439000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12189000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12094000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12042000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12026000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36633000</v>
+      </c>
+      <c r="E49" s="3">
         <v>35863000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33621000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31787000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32871000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29169000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29684000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>30433000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31172000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31804000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32467000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33478000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>34477000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35221000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35467000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7599000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7052000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5698000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7919000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8092000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8707000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7554000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7500000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7145000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6558000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5308000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5884000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5928000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5872000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5139000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90615000</v>
+      </c>
+      <c r="E54" s="3">
         <v>84913000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84397000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83331000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83965000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>82354000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82637000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>85130000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85040000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86041000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87872000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91676000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92804000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96561000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95377000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3448000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3572000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3738000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3198000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3142000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3018000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3318000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3091000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3024000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3162000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3102000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2620000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2934000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2484000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2807000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4718000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6361000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3610000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3411000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3816000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3175000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5308000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3656000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3379000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2055000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3057000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5157000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3181000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5037000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>568000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14012000</v>
+      </c>
+      <c r="E59" s="3">
         <v>13550000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14872000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14075000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13127000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12350000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13580000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11839000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11725000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11743000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12455000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11690000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12643000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12302000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13829000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22178000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23483000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20684000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20085000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18543000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22206000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18586000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18128000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16960000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18614000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19467000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18758000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19823000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17204000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26156000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21637000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22736000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22677000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22771000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22721000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19806000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19936000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19959000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21501000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21353000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21838000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21706000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>23437000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>24274000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14537000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13493000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13440000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13045000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13372000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13420000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13743000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13952000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14187000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13679000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13336000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11872000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12628000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13213000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13591000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62973000</v>
+      </c>
+      <c r="E66" s="3">
         <v>58708000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58490000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>56493000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56330000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54815000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55936000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52708000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52511000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52373000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53536000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53428000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53341000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56724000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55289000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49724000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48272000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46602000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45804000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45295000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44065000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42579000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42189000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41523000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41350000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43701000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45046000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44387000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44133000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27642000</v>
+      </c>
+      <c r="E76" s="3">
         <v>26205000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25907000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26838000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27635000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27539000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26701000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32422000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32529000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33668000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34336000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38248000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39463000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39837000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40088000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3002000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3219000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2356000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1901000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2670000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2915000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1827000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1950000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1707000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>736000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-56000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1946000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-595000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E83" s="3">
         <v>821000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>936000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>845000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>973000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>898000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>998000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1158000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1226000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1137000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1128000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1154000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1162000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1193000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1155000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3367000</v>
+      </c>
+      <c r="E89" s="3">
         <v>707000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4794000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4226000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3084000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1336000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3592000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2793000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3382000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1155000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4015000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3317000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>286000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3632000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-668000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-986000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-959000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-782000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-595000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-929000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-653000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-583000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-450000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-715000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-441000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-393000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-339000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-551000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-882000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-763000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>191000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>368000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2178000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1660000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>673000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>671000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3193000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1577000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="N96" s="3">
         <v>-1283000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>536000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1461000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-63000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>43000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-54000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-65000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-262000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>154000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>79000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>106000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>253000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-484000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3687000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2063000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1211000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>110000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>139000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2516000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>826000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5193000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12551000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10872000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12057000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11868000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12397000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11760000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10816000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10998000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10794000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10465000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10037000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10433000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10325000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9930000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9434000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10115000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3443000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3134000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3244000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2874000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3928000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3336000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3018000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3276000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3197000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3414000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3178000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3378000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3249000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2876000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3300000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9108000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7738000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8813000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8994000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8469000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8424000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7798000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7722000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7597000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7051000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6859000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7055000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7076000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6930000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6558000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6815000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3371000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2092000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2192000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2376000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3203000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2186000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1931000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2061000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2072000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1927000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1794000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2051000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4136000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1740000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1796000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1265000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E14" s="3">
         <v>150000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>168000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1162000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>295000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>159000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>187000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>336000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>589000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>576000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1504000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>567000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>436000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>257000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>291000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4335000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9435000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7743000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8148000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10015000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8361000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7561000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8284000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8301000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8427000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8983000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8572000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10211000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7433000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7373000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11464000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3116000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3129000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3909000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2568000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2382000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3399000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3255000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2714000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2493000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2038000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1054000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1861000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2497000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2061000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E20" s="3">
         <v>599000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>141000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>442000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>196000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>93000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>93000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>362000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>242000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>476000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>208000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>275000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>135000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>124000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>173000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4483000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4776000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4871000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3946000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3423000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4465000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4174000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3805000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4013000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3506000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2667000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3197000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1543000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3794000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3378000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-21000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E22" s="3">
         <v>209000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>212000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>219000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>231000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>233000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>203000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>190000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>194000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>185000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>190000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>189000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>193000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>182000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>180000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3428000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3519000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3838000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2791000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2347000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3259000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3067000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2604000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2665000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2086000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1345000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1879000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2439000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2003000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E24" s="3">
         <v>509000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>619000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>378000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>440000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>615000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>138000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>537000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>707000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>370000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>604000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>317000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>251000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>488000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>447000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-769000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2945000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3010000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3219000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2413000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1907000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2644000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2929000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2067000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1958000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1716000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>741000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1562000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-51000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1951000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1556000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-587000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3002000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3219000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2406000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1901000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2670000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2982000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1950000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1707000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>736000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1554000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1551000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-595000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1768,22 +1829,22 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-50000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-67000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-515000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-599000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-141000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-442000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-196000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-93000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-93000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-362000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-242000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-476000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-208000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-275000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-124000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-173000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3002000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3219000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2356000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1901000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2670000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2915000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1827000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1950000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1707000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>736000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1551000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-595000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3002000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3219000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2356000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1901000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2670000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2915000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1827000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1950000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1707000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>736000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1551000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-595000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7356000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11103000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7425000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9676000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7869000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6659000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8076000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7965000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7826000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5310000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4483000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6092000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7901000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7786000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11708000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6515000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2289,423 +2379,447 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>774000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>149000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>446000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>722000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>899000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2459000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2284000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2863000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2406000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3294000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4181000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3541000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7826000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8422000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8182000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6778000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8442000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7964000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7608000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7071000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7374000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7287000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7245000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6873000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7671000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7439000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7066000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7018000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6128000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6056000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5846000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5978000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5855000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5847000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5712000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5440000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5416000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5178000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5382000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5096000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5263000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5407000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5146000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4866000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4671000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4607000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4714000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4277000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3827000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3382000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3233000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3761000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4005000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4299000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3790000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3354000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4069000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4389000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26577000</v>
+      </c>
+      <c r="E46" s="3">
         <v>29343000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26174000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27483000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26142000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24298000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25351000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25875000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26836000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24064000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24085000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24766000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27919000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28167000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31530000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30614000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1251000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>555000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1469000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2111000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3779000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5621000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6233000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7606000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10033000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11033000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12892000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12206000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12138000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11896000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12131000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16919000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15789000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15269000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16126000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15372000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14925000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13506000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13291000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12755000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12626000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12561000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12439000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12189000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12094000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12042000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12026000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36925000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36633000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35863000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33621000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31787000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32871000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29169000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29684000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30433000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31172000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31804000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>32467000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33478000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34477000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35221000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35467000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8007000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7599000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7052000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5698000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7919000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8092000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8707000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7554000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7500000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7145000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6558000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5308000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5884000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5928000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5872000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5139000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89800000</v>
+      </c>
+      <c r="E54" s="3">
         <v>90615000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>84913000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84397000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83331000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83965000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82354000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82637000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85130000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85040000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86041000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87872000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91676000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92804000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96561000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95377000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3744000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3448000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3572000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3738000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3198000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3142000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3018000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3318000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3091000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3024000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3162000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3102000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2620000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2934000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2484000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2807000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2420000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4718000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6361000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3610000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3411000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3816000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3175000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5308000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3656000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3379000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2055000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3057000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5157000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3181000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5037000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>568000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14241000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14012000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13550000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14872000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14075000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13127000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12350000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13580000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11839000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11725000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11743000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12455000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11690000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12643000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12302000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13829000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20405000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22178000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23483000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20684000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20085000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18543000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22206000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18586000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18128000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16960000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18614000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19467000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18758000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19823000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17204000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26321000</v>
+      </c>
+      <c r="E61" s="3">
         <v>26156000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21637000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22736000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22677000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22771000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22721000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19806000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19936000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19959000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21501000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21353000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21838000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21706000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>23437000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>24274000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13804000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14537000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13493000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13440000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13045000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13372000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13420000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13743000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13952000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14187000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13679000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13336000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11872000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12628000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13213000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13591000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60614000</v>
+      </c>
+      <c r="E66" s="3">
         <v>62973000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58708000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58490000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>56493000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56330000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54815000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55936000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52708000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52511000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52373000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53536000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53428000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53341000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56724000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55289000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51107000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49724000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48272000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46602000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45804000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45295000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>44065000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42579000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42189000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41523000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41350000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43701000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45046000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44387000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44133000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29186000</v>
+      </c>
+      <c r="E76" s="3">
         <v>27642000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26205000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25907000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26838000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27635000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27539000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26701000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32422000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32529000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33668000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34336000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38248000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39463000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39837000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40088000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3002000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3219000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2356000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1901000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2670000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2915000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1827000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1950000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1707000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>736000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1551000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-595000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1048000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>821000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>936000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>845000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>973000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>898000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>998000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1158000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1226000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1137000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1128000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1154000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1162000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1193000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1155000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3367000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>707000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4794000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4226000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3084000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1336000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3592000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2793000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3382000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1155000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4015000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3317000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>286000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3632000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1516000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-668000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-986000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-959000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-782000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-595000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-929000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-653000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-583000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-450000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-715000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-441000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-339000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-551000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2155000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-882000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-763000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>191000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>368000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2178000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1660000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>673000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>671000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3193000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1545000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="O96" s="3">
         <v>-1283000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3851000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1137000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>536000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1461000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E101" s="3">
         <v>65000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-63000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>43000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-54000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-65000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-262000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>154000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>79000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>106000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>253000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-484000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3746000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3687000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2063000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1211000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>110000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>139000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2516000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>826000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5193000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12515000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12551000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10872000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12057000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11868000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12397000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11760000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10816000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10998000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10794000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10465000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10037000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10433000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10325000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9930000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9434000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10115000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5489000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3443000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3134000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3244000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2874000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3928000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3336000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3018000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3276000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3197000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3414000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3178000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3378000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3249000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3000000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2876000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3300000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7026000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9108000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7738000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8813000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8994000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8469000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8424000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7798000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7722000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7597000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7051000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6859000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7055000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7076000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6930000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6558000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6815000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5821000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3371000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2092000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2192000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2376000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3203000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2186000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1931000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2061000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2072000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1927000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1794000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2051000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4136000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1740000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1796000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1265000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E14" s="3">
         <v>186000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>150000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>168000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1162000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>295000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>159000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>187000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>336000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>589000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>576000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1504000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>567000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>436000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>257000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>291000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4335000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>14764000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9435000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7743000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8148000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9300000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10015000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8361000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7561000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8284000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8301000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8427000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8983000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8572000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10211000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7433000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7373000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11464000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2249000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3116000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3129000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3909000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2568000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2382000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3399000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3255000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2714000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2493000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2038000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1054000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1861000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>114000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2497000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2061000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E20" s="3">
         <v>515000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>599000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>141000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>442000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>196000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>93000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>93000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>362000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>242000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>476000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>208000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>275000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>135000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>124000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>173000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-882000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4483000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4776000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4871000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3946000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3423000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4465000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4174000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3805000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4013000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3506000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2667000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3197000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1543000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3794000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3378000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E22" s="3">
         <v>203000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>209000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>212000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>219000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>231000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>233000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>203000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>190000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>194000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>185000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>190000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>189000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>193000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>182000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1993000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3428000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3519000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3838000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2791000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2347000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3259000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3067000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2604000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2665000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2086000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1345000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1879000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2439000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2003000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E24" s="3">
         <v>483000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>509000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>619000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>378000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>440000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>615000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>138000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>537000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>707000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>370000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>604000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>317000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>251000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>488000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>447000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-769000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2091000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2945000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3010000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3219000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2413000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1907000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2644000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2929000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2067000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1958000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1716000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>741000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1562000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-51000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1951000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1556000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-587000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2094000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2941000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3002000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3219000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2406000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1901000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2670000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2982000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1950000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1707000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>736000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1554000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1946000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1551000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-595000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,13 +1874,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1832,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-50000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-67000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-463000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-515000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-599000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-141000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-442000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-196000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-93000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-93000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-362000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-242000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-476000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-208000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-275000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-135000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-124000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-173000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2094000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2941000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3002000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3219000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2356000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1901000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2670000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2915000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1827000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1950000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1707000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>736000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1946000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1551000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-595000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2094000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2941000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3002000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3219000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2356000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1901000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2670000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2915000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1827000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1950000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1707000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>736000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1946000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1551000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-595000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8062000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7356000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11103000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7425000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9676000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7869000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6659000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8076000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7965000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7826000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5310000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4483000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6092000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7901000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7786000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11708000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6515000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2382,444 +2471,468 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>774000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>149000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>446000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>722000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>899000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2459000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2284000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2863000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2406000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3294000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4181000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3541000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7826000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7851000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8422000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8182000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6778000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8442000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7964000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7608000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7071000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7374000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7287000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7245000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6873000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7671000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7439000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7066000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7018000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6310000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6128000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6056000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5846000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5978000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5855000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5847000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5712000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5440000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5416000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5178000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5382000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5096000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5263000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5407000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5146000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4866000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5541000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4671000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4607000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4714000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4277000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3827000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3382000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3233000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3761000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4005000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4112000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4299000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3790000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3354000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4069000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4389000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27764000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26577000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29343000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26174000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27483000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26142000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24298000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25351000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25875000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26836000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24064000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24085000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24766000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27919000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28167000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31530000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30614000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>785000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1372000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1251000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>555000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1469000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2111000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3779000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5621000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6233000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7606000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10033000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11033000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12892000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12206000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12138000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11896000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12131000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17986000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16919000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15789000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15269000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16126000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15372000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14925000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13506000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13291000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12626000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12561000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12439000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12189000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12094000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12042000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12026000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34842000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36925000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36633000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35863000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>33621000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>31787000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32871000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29169000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29684000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30433000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31172000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31804000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32467000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33478000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34477000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35221000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35467000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10211000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8007000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7599000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7052000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5698000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7919000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8092000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8707000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7554000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7145000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6558000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5308000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5884000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5928000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5872000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5139000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>91588000</v>
+      </c>
+      <c r="E54" s="3">
         <v>89800000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90615000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>84913000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84397000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83331000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83965000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82354000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82637000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>85130000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85040000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86041000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87872000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91676000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92804000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96561000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95377000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4594000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3744000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3448000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3572000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3738000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3198000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3142000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3018000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3318000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3091000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3024000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3162000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3102000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2620000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2934000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2484000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2807000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6431000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2420000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4718000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6361000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3610000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3411000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3816000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3175000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5308000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3656000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3379000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2055000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3057000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5157000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3181000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5037000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>568000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16302000</v>
+      </c>
+      <c r="E59" s="3">
         <v>14241000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14012000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13550000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14872000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14075000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13127000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12350000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13580000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11839000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11725000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11743000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12455000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11690000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12643000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12302000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13829000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27327000</v>
+      </c>
+      <c r="E60" s="3">
         <v>20405000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22178000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23483000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20684000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20085000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18543000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22206000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18586000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18128000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16960000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18614000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19467000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18758000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19823000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17204000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25360000</v>
+      </c>
+      <c r="E61" s="3">
         <v>26321000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26156000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21637000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22736000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22677000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22771000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22721000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19806000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19936000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19959000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21501000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21353000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21838000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21706000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23437000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>24274000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13497000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13804000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14537000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13493000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13440000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13045000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13372000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13420000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13743000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13952000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14187000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13679000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13336000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11872000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12628000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13213000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13591000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>66271000</v>
+      </c>
+      <c r="E66" s="3">
         <v>60614000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62973000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58708000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58490000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>56493000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56330000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54815000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55936000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52708000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52511000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52373000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53536000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53428000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53341000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56724000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55289000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47362000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51107000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49724000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48272000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>46602000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45804000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45295000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>44065000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42579000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42189000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41523000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41350000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43701000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45046000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44387000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44133000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25317000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29186000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27642000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26205000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25907000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26838000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27635000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27539000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26701000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32422000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32529000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33668000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34336000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38248000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39463000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39837000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40088000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2094000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2941000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3002000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3219000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2356000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1901000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2670000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2915000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1827000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1950000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1707000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>736000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1946000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1551000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-595000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E83" s="3">
         <v>852000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1048000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>821000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>936000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>845000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>973000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>898000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>998000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1158000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1226000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1137000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1128000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1154000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1162000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1193000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1155000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4006000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2173000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3367000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>707000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4794000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4226000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3084000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1336000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3592000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2793000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3382000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1155000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4015000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3317000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>286000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3632000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1514000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1516000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-668000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-986000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-959000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-782000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-595000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-929000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-653000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-583000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-450000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-715000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-441000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-393000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-339000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-551000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4778000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-882000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-763000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>191000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>368000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2178000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1660000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>673000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>671000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3193000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1542000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="P96" s="3">
         <v>-1283000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1137000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>536000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1461000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E101" s="3">
         <v>87000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>65000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-63000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>43000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-54000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-65000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-262000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>154000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>79000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>106000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>253000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-484000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>764000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3687000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2063000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1211000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>139000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2516000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>826000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>115000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5193000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12080000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12515000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12551000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10872000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12057000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11868000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12397000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11760000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10816000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10998000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10794000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10465000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10037000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10433000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10325000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9930000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9434000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10115000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3455000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5489000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3443000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3134000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3244000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2874000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3928000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3336000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3018000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3276000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3197000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3414000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3178000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3378000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3249000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3000000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2876000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3300000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8625000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7026000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9108000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7738000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8813000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8994000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8469000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8424000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7798000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7722000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7597000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7051000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6859000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7055000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7076000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6930000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6558000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6815000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2458000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5821000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3371000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2092000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2192000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2376000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3203000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2186000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1931000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2061000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2072000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1927000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1794000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2051000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4136000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1740000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1796000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1265000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E14" s="3">
         <v>379000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>186000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>150000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>168000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1162000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>295000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>159000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>187000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>336000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>589000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>576000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1504000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>567000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>436000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>257000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>291000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4335000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9066000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14764000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9435000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7743000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8148000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9300000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10015000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7561000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8284000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8301000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8427000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8983000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8572000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10211000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7433000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7373000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11464000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3014000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2249000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3116000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3129000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3909000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2568000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2382000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3399000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3255000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2714000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2493000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2038000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1054000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>114000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2497000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2061000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E20" s="3">
         <v>463000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>515000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>599000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>141000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>442000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>196000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>93000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>93000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>362000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>242000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>476000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>208000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>275000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>135000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>124000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>173000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-882000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4483000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4776000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4871000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3946000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3423000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4465000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4174000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3805000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4013000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3506000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2667000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3197000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1543000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3794000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3378000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-21000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="3">
         <v>207000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>203000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>212000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>219000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>231000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>233000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>203000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>190000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>194000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>185000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>190000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>189000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>193000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>182000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3462000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1993000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3428000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3519000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3838000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2791000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2347000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3259000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3067000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2604000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2665000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2086000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1345000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1879000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2439000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2003000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E24" s="3">
         <v>98000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>483000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>509000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>619000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>378000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>440000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>615000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>138000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>537000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>707000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>370000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>604000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>317000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>251000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>488000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>447000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-769000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3186000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2091000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2945000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3010000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3219000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2413000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1907000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2644000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2929000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2067000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1958000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1716000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>741000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1562000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-51000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1951000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1556000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-587000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2094000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2941000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3002000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3219000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2406000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1901000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2670000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2982000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1950000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1707000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>736000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-56000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1946000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1551000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-595000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,16 +1935,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1895,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-50000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-67000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-648000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-463000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-515000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-599000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-141000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-442000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-196000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-93000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-93000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-362000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-242000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-476000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-208000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-275000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-135000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-124000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-173000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2941000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3002000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3219000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2356000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1901000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2670000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2915000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1827000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1950000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1707000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>736000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-56000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1946000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1551000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-595000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2941000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3002000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3219000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2356000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1901000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2670000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2915000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1827000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1950000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1707000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>736000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-56000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1946000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1551000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-595000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,72 +2486,76 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6981000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8062000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7356000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11103000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7425000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9676000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7869000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6659000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8076000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7965000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7826000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5310000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4483000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6092000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7901000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7786000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11708000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6515000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2474,465 +2564,489 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>774000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>149000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>446000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>722000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>899000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2459000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2284000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2863000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2406000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3294000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4181000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3541000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7826000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8235000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7851000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8422000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8182000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6778000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8442000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7964000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7608000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7071000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7374000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7287000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7245000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6873000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7671000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7439000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7066000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7018000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6402000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6310000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6128000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6056000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5846000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5978000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5855000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5847000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5712000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5440000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5416000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5178000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5382000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5096000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5263000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5407000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5146000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4866000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5291000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5541000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4671000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4607000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4714000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4277000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3827000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3382000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3233000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3761000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4005000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4112000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4299000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3790000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3354000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4069000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4389000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26909000</v>
+      </c>
+      <c r="E46" s="3">
         <v>27764000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26577000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>29343000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26174000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27483000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26142000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24298000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25351000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25875000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26836000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24064000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24085000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24766000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27919000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28167000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31530000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30614000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E47" s="3">
         <v>785000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1372000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1251000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>555000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1469000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2111000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3779000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5621000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6233000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7606000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10033000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11033000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12892000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12206000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12138000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11896000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12131000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18295000</v>
+      </c>
+      <c r="E48" s="3">
         <v>17986000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16919000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15789000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15269000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16126000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15372000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14925000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13506000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13291000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12626000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12561000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12439000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12189000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12094000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12042000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12026000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34613000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34842000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36925000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36633000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>35863000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>33621000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>31787000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32871000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29169000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29684000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30433000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31172000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31804000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32467000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33478000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34477000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35221000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35467000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10486000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10211000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8007000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7599000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7052000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5698000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7919000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8092000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8707000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7554000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7145000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6558000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5308000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5884000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5928000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5872000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5139000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90847000</v>
+      </c>
+      <c r="E54" s="3">
         <v>91588000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89800000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90615000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84913000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84397000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83331000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83965000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82354000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82637000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>85130000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85040000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86041000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>87872000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91676000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92804000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96561000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95377000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4034000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4594000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3744000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3448000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3572000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3738000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3198000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3142000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3018000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3318000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3091000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3024000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3162000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3102000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2620000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2934000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2484000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2807000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7251000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6431000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2420000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4718000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6361000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3610000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3411000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3816000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3175000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5308000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3656000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3379000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2055000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3057000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5157000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3181000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5037000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>568000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15076000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16302000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14241000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14012000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13550000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14872000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14075000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13127000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12350000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13580000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11839000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11725000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11743000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12455000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11690000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12643000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12302000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13829000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26361000</v>
+      </c>
+      <c r="E60" s="3">
         <v>27327000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20405000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22178000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23483000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20684000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20085000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18543000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22206000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18586000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18128000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16960000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18614000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19467000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18758000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19823000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17204000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24002000</v>
+      </c>
+      <c r="E61" s="3">
         <v>25360000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>26321000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26156000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21637000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22736000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22677000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22771000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22721000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19806000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19936000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19959000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21501000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21353000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21838000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21706000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23437000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>24274000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13445000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13497000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13804000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14537000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13493000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13440000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13045000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13372000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13420000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13743000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13952000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14187000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13679000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13336000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11872000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12628000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13213000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13591000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63902000</v>
+      </c>
+      <c r="E66" s="3">
         <v>66271000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60614000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62973000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>58708000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58490000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>56493000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56330000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54815000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55936000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52708000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52511000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52373000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53536000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53428000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53341000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56724000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55289000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48888000</v>
+      </c>
+      <c r="E72" s="3">
         <v>47362000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49724000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48272000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46602000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45804000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45295000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44065000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42579000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42189000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41523000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41350000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43701000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45046000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44387000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44133000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26945000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25317000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29186000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>27642000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26205000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25907000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26838000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27635000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27539000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26701000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32422000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32529000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33668000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34336000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38248000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39463000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39837000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40088000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3179000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2941000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3002000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3219000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2356000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1901000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2670000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2915000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1827000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1950000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1707000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>736000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-56000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1946000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1551000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-595000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E83" s="3">
         <v>904000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>852000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1048000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>821000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>936000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>845000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>973000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>898000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>998000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1158000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1226000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1137000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1154000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1162000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1193000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1155000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4006000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2173000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3367000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>707000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4794000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4226000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3084000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1336000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3592000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2793000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3382000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1155000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4015000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3317000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>286000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3632000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1134000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1514000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1516000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-668000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-986000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-959000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-782000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-595000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-929000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-653000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-583000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-450000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-715000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-441000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-393000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-339000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-551000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-738000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-882000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-763000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>191000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>368000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2178000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1660000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>673000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-197000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>671000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3193000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1645000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1283000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2098000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1372000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1137000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>536000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1461000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E101" s="3">
         <v>164000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>87000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>65000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-63000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>43000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-54000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-262000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>154000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>79000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>106000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>253000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-484000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1142000</v>
+      </c>
+      <c r="E102" s="3">
         <v>764000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3687000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2063000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1211000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>139000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2516000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>826000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>115000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5193000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12080000</v>
+        <v>11402000</v>
       </c>
       <c r="E8" s="3">
+        <v>10627000</v>
+      </c>
+      <c r="F8" s="3">
         <v>12515000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12551000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10872000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12057000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11868000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12397000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11760000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10816000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10998000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10794000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10465000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10037000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10433000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10325000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9930000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9434000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10115000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3455000</v>
+        <v>3042000</v>
       </c>
       <c r="E9" s="3">
+        <v>2943000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5489000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3443000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3134000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3244000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2874000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3928000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3336000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3018000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3276000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3197000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3414000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3178000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3378000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3249000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3000000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2876000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3300000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8625000</v>
+        <v>8360000</v>
       </c>
       <c r="E10" s="3">
+        <v>7684000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7026000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9108000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7738000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8813000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8994000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8469000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8424000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7798000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7722000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7597000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7051000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6859000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7055000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7076000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6930000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6558000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6815000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2458000</v>
+        <v>4315000</v>
       </c>
       <c r="E12" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="F12" s="3">
         <v>5821000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3371000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2092000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2192000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2376000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3203000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2186000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1931000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2061000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2072000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1927000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1794000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2051000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4136000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1740000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1796000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1265000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>523000</v>
+        <v>152000</v>
       </c>
       <c r="E14" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F14" s="3">
         <v>379000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>186000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>150000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>168000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1162000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>295000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>159000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>187000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>336000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>589000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>576000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1504000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>567000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>436000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>257000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>291000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4335000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9066000</v>
+        <v>9788000</v>
       </c>
       <c r="E17" s="3">
+        <v>8095000</v>
+      </c>
+      <c r="F17" s="3">
         <v>14764000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9435000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7743000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8148000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9300000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10015000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7561000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8284000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8301000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8427000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8983000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8572000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10211000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7433000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7373000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11464000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3014000</v>
+        <v>1614000</v>
       </c>
       <c r="E18" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2249000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3116000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3129000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3909000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2568000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2382000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3399000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3255000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2714000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2493000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2038000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1054000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1861000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>114000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2497000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2061000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>648000</v>
+        <v>305000</v>
       </c>
       <c r="E20" s="3">
+        <v>654000</v>
+      </c>
+      <c r="F20" s="3">
         <v>463000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>515000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>599000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>141000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>442000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>196000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>93000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>93000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>362000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>242000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>476000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>208000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>275000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>135000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>124000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>173000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4592000</v>
+        <v>2609000</v>
       </c>
       <c r="E21" s="3">
+        <v>4116000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-882000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4483000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4776000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4871000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3946000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3423000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4465000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4174000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3805000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4013000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3506000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2667000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3197000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1543000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3794000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3378000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-21000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>200000</v>
+        <v>202000</v>
       </c>
       <c r="E22" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F22" s="3">
         <v>207000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>203000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>212000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>219000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>231000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>233000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>203000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>190000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>194000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>185000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>190000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>189000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>193000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>182000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>180000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3462000</v>
+        <v>1717000</v>
       </c>
       <c r="E23" s="3">
+        <v>2987000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1993000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3428000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3519000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3838000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2791000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2347000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3259000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3067000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2604000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2665000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2086000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1879000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2439000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2003000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>276000</v>
+        <v>503000</v>
       </c>
       <c r="E24" s="3">
+        <v>238000</v>
+      </c>
+      <c r="F24" s="3">
         <v>98000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>483000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>509000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>619000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>378000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>440000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>615000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>138000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>537000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>707000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>370000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>604000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>317000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>251000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>488000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>447000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-769000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3186000</v>
+        <v>1214000</v>
       </c>
       <c r="E26" s="3">
+        <v>2749000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2091000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2945000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3010000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3219000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2413000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1907000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2644000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2929000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2067000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1958000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1716000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>741000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1562000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-51000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1951000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1556000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-587000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3179000</v>
+        <v>1213000</v>
       </c>
       <c r="E27" s="3">
+        <v>2745000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2094000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2941000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3002000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3219000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2406000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1901000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2670000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2982000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1950000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1707000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>736000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1554000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-56000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1946000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1551000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-595000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,20 +1996,23 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>434000</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1959,22 +2020,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-50000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-67000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-648000</v>
+        <v>-305000</v>
       </c>
       <c r="E32" s="3">
+        <v>-654000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-463000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-515000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-599000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-141000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-442000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-196000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-93000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-93000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-362000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-242000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-476000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-208000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-275000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-135000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-124000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-173000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3179000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2941000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3002000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3219000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2356000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1901000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2670000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2915000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1827000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1950000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1707000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>736000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-56000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1946000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1551000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-595000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3179000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2941000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3002000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3219000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2356000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1901000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2670000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2915000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1827000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1950000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1707000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>736000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-56000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1946000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1551000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-595000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,78 +2573,82 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8575000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6981000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8062000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7356000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11103000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7425000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9676000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7869000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6659000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8076000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7965000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7826000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5310000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4483000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6092000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7901000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7786000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11708000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6515000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2567,486 +2657,510 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>774000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>149000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>446000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>722000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>899000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2459000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2284000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2863000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2406000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3294000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4181000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3541000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7826000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7843000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8235000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7851000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8422000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7577000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8182000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6778000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8442000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7964000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7608000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7071000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7374000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7287000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7245000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6873000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7671000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7439000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7066000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7018000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5499000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6402000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6310000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6128000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6056000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5846000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5978000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5855000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5847000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5712000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5440000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5416000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5178000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5382000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5096000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5263000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5407000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5146000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4866000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6748000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5291000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5541000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4671000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4607000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4714000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4277000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3827000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3382000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3233000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3761000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4005000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4112000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4299000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3790000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3354000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4069000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4389000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28665000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26909000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27764000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26577000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29343000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26174000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27483000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26142000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24298000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25351000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25875000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26836000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24064000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24085000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24766000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27919000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28167000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31530000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30614000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E47" s="3">
         <v>544000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>785000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1372000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1251000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>555000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1469000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2111000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3779000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5621000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6233000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7606000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10033000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11033000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12892000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12206000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12138000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11896000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12131000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18064000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18295000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17986000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16919000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15789000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15269000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16126000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15372000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14925000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13506000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13291000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12626000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12561000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12439000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12189000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12094000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12042000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12026000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32495000</v>
+      </c>
+      <c r="E49" s="3">
         <v>34613000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34842000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36925000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36633000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>35863000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33621000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>31787000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32871000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29169000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29684000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30433000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31172000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31804000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32467000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33478000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34477000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35221000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35467000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11053000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10486000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10211000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8007000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7599000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7052000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5698000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7919000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8092000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8707000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7554000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7145000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6558000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5308000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5884000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5928000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5872000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5139000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90688000</v>
+      </c>
+      <c r="E54" s="3">
         <v>90847000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>91588000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89800000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90615000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84913000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84397000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83331000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83965000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82354000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82637000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85130000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85040000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86041000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>87872000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91676000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92804000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>96561000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95377000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3897000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4034000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4594000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3744000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3448000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3572000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3738000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3198000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3142000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3018000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3318000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3091000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3024000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3162000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3102000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2620000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2934000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2484000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2807000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7251000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6431000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2420000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4718000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6361000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3610000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3411000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3816000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3175000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5308000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3656000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3379000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2055000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3057000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5157000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3181000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5037000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>568000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15521000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15076000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16302000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14241000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14012000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13550000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14872000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14075000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13127000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12350000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13580000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11839000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11725000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11743000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12455000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11690000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12643000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12302000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13829000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21906000</v>
+      </c>
+      <c r="E60" s="3">
         <v>26361000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27327000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20405000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22178000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23483000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22220000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20684000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20085000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18543000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22206000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18586000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18128000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16960000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18614000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19467000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18758000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19823000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17204000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>24033000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24002000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25360000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26321000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26156000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21637000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22736000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22677000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22771000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22721000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19806000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19936000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19959000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21501000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21353000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21838000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21706000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23437000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>24274000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11361000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13445000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13497000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13804000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14537000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13493000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13440000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13045000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13372000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13420000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13743000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13952000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14187000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13679000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13336000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11872000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12628000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13213000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13591000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57394000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63902000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>66271000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60614000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62973000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>58708000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58490000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>56493000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56330000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54815000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55936000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52708000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52511000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52373000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53536000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53428000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53341000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56724000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55289000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48777000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48888000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47362000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49724000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48272000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46602000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45804000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45295000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44065000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42579000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42189000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41523000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41350000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43701000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45046000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44387000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44133000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33294000</v>
+      </c>
+      <c r="E76" s="3">
         <v>26945000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25317000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29186000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>27642000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26205000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25907000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26838000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27635000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27539000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26701000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32422000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32529000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33668000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34336000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38248000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39463000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39837000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40088000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1545000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3179000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2941000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3002000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3219000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2356000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1901000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2670000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2915000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1827000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1950000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1707000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>736000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-56000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1946000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1551000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-595000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E83" s="3">
         <v>930000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>904000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>852000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1048000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>821000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>936000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>845000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>973000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>898000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>998000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1158000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1226000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1128000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1154000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1162000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1193000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1155000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2490000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1791000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4006000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2173000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3367000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>707000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4794000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4226000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3084000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1336000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3592000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2793000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3382000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1155000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4015000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3317000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>286000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3632000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-934000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1514000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1516000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-668000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-986000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-959000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-782000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-595000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-929000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-653000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-583000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-450000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-715000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-441000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-393000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-339000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-551000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2707000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-738000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-882000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-763000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>191000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>368000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2178000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1660000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>673000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>671000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3193000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1673000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="R96" s="3">
         <v>-1283000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1372000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1137000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>536000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1461000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-97000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>164000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>87000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>65000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-63000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>43000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-54000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-65000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-262000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>154000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>79000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>106000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>253000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-484000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>764000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3687000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2063000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1211000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>139000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2516000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>826000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>115000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5193000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13154000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11402000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10627000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12515000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12551000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10872000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12057000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11868000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12397000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11760000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10816000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10998000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10794000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10465000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10037000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10433000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10325000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9930000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9434000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10115000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3042000</v>
+        <v>3402000</v>
       </c>
       <c r="E9" s="3">
-        <v>2943000</v>
+        <v>3029000</v>
       </c>
       <c r="F9" s="3">
+        <v>2984000</v>
+      </c>
+      <c r="G9" s="3">
         <v>5489000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3443000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3134000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3244000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2874000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3928000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3336000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3018000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3276000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3197000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3414000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3178000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3378000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3249000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3000000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2876000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3300000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8360000</v>
+        <v>9752000</v>
       </c>
       <c r="E10" s="3">
-        <v>7684000</v>
+        <v>8373000</v>
       </c>
       <c r="F10" s="3">
+        <v>7643000</v>
+      </c>
+      <c r="G10" s="3">
         <v>7026000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9108000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7738000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8813000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8994000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8469000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8424000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7798000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7722000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7597000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7051000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6859000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7055000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7076000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6930000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6558000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6815000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2437000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4315000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2404000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5821000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3371000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2092000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2192000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2376000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3203000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2186000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1931000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2061000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2072000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1927000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1794000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2051000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4136000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1740000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1796000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1265000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>152000</v>
+        <v>168000</v>
       </c>
       <c r="E14" s="3">
-        <v>563000</v>
+        <v>165000</v>
       </c>
       <c r="F14" s="3">
+        <v>522000</v>
+      </c>
+      <c r="G14" s="3">
         <v>379000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>186000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>150000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>168000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1162000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>295000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>159000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>187000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>336000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>589000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>576000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1504000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>567000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>436000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>257000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>291000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4335000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8338000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9788000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8095000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14764000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9435000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7743000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8148000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9300000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10015000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7561000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8284000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8301000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8427000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8983000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8572000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10211000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7433000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7373000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11464000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4816000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1614000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2532000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2249000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3116000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3129000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3909000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2568000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2382000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3399000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3255000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2714000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2493000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2038000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1054000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1861000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>114000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2497000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2061000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E20" s="3">
         <v>305000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>654000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>463000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>515000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>599000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>141000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>442000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>196000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>93000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>93000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>362000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>242000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>476000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>208000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>275000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>135000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>124000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>173000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6221000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2609000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4116000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-882000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4483000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4776000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4871000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3946000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3423000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4465000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4174000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3805000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4013000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3506000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2667000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3197000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1543000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3794000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3378000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-21000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E22" s="3">
         <v>202000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>199000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>207000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>203000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>212000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>219000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>231000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>233000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>203000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>190000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>194000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>185000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>190000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>189000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>193000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>182000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>180000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5266000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1717000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2987000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1993000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3428000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3519000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3838000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2791000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2347000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3259000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3067000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2604000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2665000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2086000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1345000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1879000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2439000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2003000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E24" s="3">
         <v>503000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>238000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>98000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>483000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>509000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>619000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>378000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>440000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>615000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>138000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>537000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>707000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>370000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>604000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>317000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>251000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>488000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>447000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-769000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4571000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1214000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2749000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2091000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2945000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3010000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3219000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2413000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1907000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2644000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2929000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2067000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1958000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>741000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1562000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-51000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1951000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1556000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-587000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4567000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1213000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2745000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2094000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2941000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3002000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3219000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2406000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1901000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2670000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2982000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2116000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1950000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>736000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1554000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1946000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1551000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-595000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,23 +2057,26 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>332000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>434000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -2023,22 +2084,22 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-50000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-67000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-305000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-654000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-463000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-515000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-599000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-141000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-442000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-196000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-93000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-93000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-362000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-476000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-208000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-275000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-135000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-124000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-173000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4567000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1545000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3179000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2941000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3002000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3219000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2356000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1901000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2670000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2915000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1827000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1950000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>736000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1946000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1551000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-595000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4567000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1545000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3179000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2941000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3002000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3219000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2356000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1901000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2670000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2915000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1827000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1950000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>736000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1946000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1551000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-595000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10016000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8575000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6981000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8062000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7356000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11103000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7425000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9676000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7869000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6659000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8076000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7965000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7826000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5310000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4483000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6092000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7901000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7786000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11708000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6515000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2650,8 +2740,8 @@
       <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2660,507 +2750,531 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>774000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>149000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>446000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>722000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>899000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2459000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2284000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2863000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2406000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3294000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4181000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3541000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7826000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8571000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7843000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8235000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7851000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8422000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7577000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8182000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6778000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8442000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7964000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7608000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7071000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7374000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7287000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7245000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6873000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7671000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7439000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7066000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7018000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5499000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6402000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6310000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6128000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6056000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5846000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5978000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5855000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5847000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5712000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5440000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5416000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5178000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5382000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5096000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5263000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5407000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5146000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4866000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6868000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6748000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5291000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5541000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4671000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4607000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4714000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4277000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3827000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3382000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3233000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3761000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4005000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4112000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4299000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3790000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3354000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4069000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4389000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31058000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28665000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26909000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27764000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26577000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29343000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26174000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27483000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26142000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24298000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>25351000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25875000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26836000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24064000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24085000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24766000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27919000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28167000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31530000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30614000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>411000</v>
+        <v>1013000</v>
       </c>
       <c r="E47" s="3">
-        <v>544000</v>
+        <v>1105000</v>
       </c>
       <c r="F47" s="3">
-        <v>785000</v>
+        <v>1195000</v>
       </c>
       <c r="G47" s="3">
-        <v>1372000</v>
+        <v>1371000</v>
       </c>
       <c r="H47" s="3">
-        <v>1251000</v>
+        <v>1880000</v>
       </c>
       <c r="I47" s="3">
-        <v>555000</v>
+        <v>1738000</v>
       </c>
       <c r="J47" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1469000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2111000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3779000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5621000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6233000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7606000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10033000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11033000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12892000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12206000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12138000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11896000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12131000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18565000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18064000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18295000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17986000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16919000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15789000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15269000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16126000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15372000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14925000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13506000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13291000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12755000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12626000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12561000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12439000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12189000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12094000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12042000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12026000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32246000</v>
+      </c>
+      <c r="E49" s="3">
         <v>32495000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>34613000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34842000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36925000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36633000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>35863000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33621000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31787000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32871000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29169000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29684000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30433000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31172000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31804000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32467000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>33478000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34477000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35221000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35467000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11053000</v>
+        <v>10612000</v>
       </c>
       <c r="E52" s="3">
-        <v>10486000</v>
+        <v>10359000</v>
       </c>
       <c r="F52" s="3">
-        <v>10211000</v>
+        <v>9835000</v>
       </c>
       <c r="G52" s="3">
-        <v>8007000</v>
+        <v>9625000</v>
       </c>
       <c r="H52" s="3">
-        <v>7599000</v>
+        <v>7499000</v>
       </c>
       <c r="I52" s="3">
-        <v>7052000</v>
+        <v>7112000</v>
       </c>
       <c r="J52" s="3">
+        <v>6602000</v>
+      </c>
+      <c r="K52" s="3">
         <v>5698000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7919000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8092000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8707000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7554000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7145000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6558000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5308000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5884000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5928000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5872000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5139000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93494000</v>
+      </c>
+      <c r="E54" s="3">
         <v>90688000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90847000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>91588000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89800000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90615000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>84913000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84397000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83331000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83965000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82354000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82637000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85130000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85040000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86041000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87872000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91676000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92804000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>96561000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95377000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3897000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4034000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4594000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3744000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3448000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3572000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3738000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3198000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3142000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3018000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3318000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3091000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3024000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3162000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3102000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2620000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2934000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2484000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2807000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3534000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2488000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7251000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6431000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2420000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4718000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6361000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3610000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3411000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3816000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3175000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5308000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3656000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3379000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2055000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3057000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5157000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3181000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5037000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>568000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16828000</v>
+      </c>
+      <c r="E59" s="3">
         <v>15521000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15076000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16302000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14241000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14012000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13550000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14872000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14075000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13127000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12350000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13580000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11839000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11725000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11743000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12455000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11690000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12643000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12302000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13829000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23728000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21906000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26361000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27327000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20405000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22178000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23483000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20684000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20085000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18543000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22206000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18586000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18128000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16960000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18614000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19467000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18758000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19823000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17204000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22907000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24033000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24002000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25360000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26321000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26156000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21637000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22736000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22677000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22771000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22721000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19806000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19936000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19959000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21501000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21353000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21838000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21706000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23437000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>24274000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10996000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11361000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13445000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13497000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13804000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14537000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13493000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13440000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13045000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13372000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13420000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13743000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13952000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14187000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13679000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13336000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11872000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12628000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13213000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13591000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57700000</v>
+      </c>
+      <c r="E66" s="3">
         <v>57394000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63902000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66271000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60614000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62973000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58708000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58490000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56493000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56330000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54815000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55936000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52708000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52511000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52373000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53536000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53428000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>53341000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56724000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55289000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51691000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48777000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48888000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47362000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49724000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48272000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46602000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45804000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45295000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44065000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42579000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42189000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41523000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41107000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41350000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43701000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45046000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44387000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44133000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35794000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33294000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26945000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25317000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29186000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27642000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26205000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25907000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26838000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27635000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27539000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26701000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32422000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32529000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33668000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34336000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38248000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39463000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39837000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40088000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4567000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1545000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3179000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2941000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3002000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3219000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2356000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1901000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2670000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2915000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1827000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1950000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1707000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>736000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1946000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1551000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-595000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E83" s="3">
         <v>690000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>930000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>904000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>852000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1048000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>821000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>936000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>845000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>973000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>898000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>998000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1158000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1226000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1137000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1128000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1154000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1162000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1193000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1155000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4797000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2490000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1791000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4006000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2173000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3367000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>707000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4794000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4226000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3084000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1336000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3592000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2793000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3382000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1155000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4015000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3317000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>286000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3632000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1172000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-934000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1514000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1516000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-668000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-986000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-959000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-782000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-595000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-929000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-653000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-583000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-450000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-715000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-441000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-393000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-339000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-551000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1061000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-738000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-882000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-763000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>191000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>368000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2178000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1660000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>673000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>671000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3193000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1649000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="S96" s="3">
         <v>-1283000</v>
       </c>
       <c r="T96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2274000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1758000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1372000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1137000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>536000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1461000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E101" s="3">
         <v>78000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-97000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>164000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>87000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>65000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-63000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>43000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-54000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-65000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-262000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>154000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>79000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>106000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>253000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-484000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1416000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1619000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>764000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3687000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2063000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1211000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>110000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2516000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>826000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>115000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5193000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13521000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13154000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11402000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10627000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12515000</v>
-      </c>
       <c r="H8" s="3">
-        <v>12551000</v>
+        <v>10948000</v>
       </c>
       <c r="I8" s="3">
-        <v>10872000</v>
+        <v>10929000</v>
       </c>
       <c r="J8" s="3">
+        <v>9353000</v>
+      </c>
+      <c r="K8" s="3">
         <v>12057000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11868000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12397000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11760000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10816000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10998000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10794000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10465000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10037000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10433000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10325000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9930000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9434000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10115000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3402000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3029000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2984000</v>
       </c>
-      <c r="G9" s="3">
-        <v>5489000</v>
-      </c>
       <c r="H9" s="3">
-        <v>3443000</v>
+        <v>4725000</v>
       </c>
       <c r="I9" s="3">
-        <v>3134000</v>
+        <v>3260000</v>
       </c>
       <c r="J9" s="3">
+        <v>3021000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3244000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2874000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3928000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3336000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3018000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3276000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3197000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3414000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3178000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3378000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3249000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3000000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2876000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3300000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9694000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9752000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8373000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7643000</v>
       </c>
-      <c r="G10" s="3">
-        <v>7026000</v>
-      </c>
       <c r="H10" s="3">
-        <v>9108000</v>
+        <v>6223000</v>
       </c>
       <c r="I10" s="3">
-        <v>7738000</v>
+        <v>7669000</v>
       </c>
       <c r="J10" s="3">
+        <v>6332000</v>
+      </c>
+      <c r="K10" s="3">
         <v>8813000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8994000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8469000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8424000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7798000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7722000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7597000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7051000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6859000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7055000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7076000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6930000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6558000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6815000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2437000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4315000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2404000</v>
       </c>
-      <c r="G12" s="3">
-        <v>5821000</v>
-      </c>
       <c r="H12" s="3">
-        <v>3371000</v>
+        <v>2982000</v>
       </c>
       <c r="I12" s="3">
-        <v>2092000</v>
+        <v>3330000</v>
       </c>
       <c r="J12" s="3">
+        <v>2054000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2192000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2376000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3203000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2186000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1931000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2061000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2072000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1927000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1794000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2051000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4136000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1740000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1796000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1265000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,76 +1144,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E14" s="3">
         <v>168000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>165000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>522000</v>
       </c>
-      <c r="G14" s="3">
-        <v>379000</v>
-      </c>
       <c r="H14" s="3">
-        <v>186000</v>
+        <v>3430000</v>
       </c>
       <c r="I14" s="3">
-        <v>150000</v>
+        <v>185000</v>
       </c>
       <c r="J14" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K14" s="3">
         <v>168000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1162000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>295000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>159000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>187000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>336000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>589000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>576000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1504000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>567000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>436000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>257000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>291000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4335000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9946000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8338000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9788000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8095000</v>
       </c>
-      <c r="G17" s="3">
-        <v>14764000</v>
-      </c>
       <c r="H17" s="3">
-        <v>9435000</v>
+        <v>13746000</v>
       </c>
       <c r="I17" s="3">
-        <v>7743000</v>
+        <v>8535000</v>
       </c>
       <c r="J17" s="3">
+        <v>6999000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8148000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10015000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8361000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7561000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8284000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8301000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8427000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8983000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8572000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10211000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7433000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7373000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11464000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3575000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4816000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1614000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2532000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2249000</v>
-      </c>
       <c r="H18" s="3">
-        <v>3116000</v>
+        <v>-2798000</v>
       </c>
       <c r="I18" s="3">
-        <v>3129000</v>
+        <v>2394000</v>
       </c>
       <c r="J18" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3909000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2568000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2382000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3399000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3255000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2714000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2493000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2038000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1054000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1861000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>114000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2497000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2061000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E20" s="3">
         <v>646000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>305000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>654000</v>
       </c>
-      <c r="G20" s="3">
-        <v>463000</v>
-      </c>
       <c r="H20" s="3">
+        <v>460000</v>
+      </c>
+      <c r="I20" s="3">
         <v>515000</v>
       </c>
-      <c r="I20" s="3">
-        <v>599000</v>
-      </c>
       <c r="J20" s="3">
+        <v>596000</v>
+      </c>
+      <c r="K20" s="3">
         <v>141000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>442000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>196000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>93000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>93000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>362000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>242000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>476000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>208000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>275000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>135000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>124000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>173000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6221000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2609000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4116000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-882000</v>
-      </c>
       <c r="H21" s="3">
-        <v>4483000</v>
+        <v>-1455000</v>
       </c>
       <c r="I21" s="3">
-        <v>4776000</v>
+        <v>3716000</v>
       </c>
       <c r="J21" s="3">
+        <v>3925000</v>
+      </c>
+      <c r="K21" s="3">
         <v>4871000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3946000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3423000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4465000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4174000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3805000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4013000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3506000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2667000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3197000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1543000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3794000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3378000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-21000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E22" s="3">
         <v>196000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>202000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>199000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>207000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>203000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>212000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>219000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>231000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>233000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>203000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>190000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>194000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>185000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>190000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>189000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>193000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>182000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>180000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3909000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5266000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1717000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2987000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1993000</v>
-      </c>
       <c r="H23" s="3">
-        <v>3428000</v>
+        <v>-2545000</v>
       </c>
       <c r="I23" s="3">
-        <v>3519000</v>
+        <v>2706000</v>
       </c>
       <c r="J23" s="3">
+        <v>2741000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3838000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2791000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2347000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3259000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3067000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2604000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2665000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2086000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1345000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1879000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2439000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2003000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E24" s="3">
         <v>695000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>503000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>238000</v>
       </c>
-      <c r="G24" s="3">
-        <v>98000</v>
-      </c>
       <c r="H24" s="3">
-        <v>483000</v>
+        <v>69000</v>
       </c>
       <c r="I24" s="3">
-        <v>509000</v>
+        <v>380000</v>
       </c>
       <c r="J24" s="3">
+        <v>396000</v>
+      </c>
+      <c r="K24" s="3">
         <v>619000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>378000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>440000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>615000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>138000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>537000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>707000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>370000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>604000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>317000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>251000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>488000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>447000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-769000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3824000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4571000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1214000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2749000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2091000</v>
-      </c>
       <c r="H26" s="3">
-        <v>2945000</v>
+        <v>-2614000</v>
       </c>
       <c r="I26" s="3">
-        <v>3010000</v>
+        <v>2326000</v>
       </c>
       <c r="J26" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3219000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2413000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1907000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2644000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2929000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2067000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1958000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1716000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>741000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1562000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-51000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1951000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1556000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-587000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3820000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4567000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1213000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2745000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2094000</v>
-      </c>
       <c r="H27" s="3">
-        <v>2941000</v>
+        <v>-2617000</v>
       </c>
       <c r="I27" s="3">
-        <v>3002000</v>
+        <v>2324000</v>
       </c>
       <c r="J27" s="3">
+        <v>2341000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3219000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2406000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1901000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2670000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2982000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2116000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1707000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>736000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1554000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-56000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1946000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1551000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-595000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,49 +2118,52 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-62000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>332000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>434000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>523000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>617000</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>661000</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-50000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-67000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-543000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-646000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-305000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-654000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-463000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-515000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-599000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-596000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-141000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-442000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-196000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-93000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-93000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-362000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-242000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-476000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-208000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-275000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-135000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-124000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-173000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3758000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4567000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1545000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3179000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2941000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3002000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3219000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2356000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1901000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2670000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2915000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1827000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1707000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>736000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-56000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1946000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1551000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-595000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3758000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4567000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1545000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3179000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2941000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3002000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3219000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2356000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1901000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2670000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2915000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1827000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1707000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>736000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-56000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1946000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1551000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-595000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8096000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10016000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8575000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6981000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8062000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7356000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11103000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7425000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9676000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7869000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6659000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8076000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7965000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7826000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5310000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4483000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6092000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7901000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7786000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11708000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6515000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,8 +2833,8 @@
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2753,528 +2843,552 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>774000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>149000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>446000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>722000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>899000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2459000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2284000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2863000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2406000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3294000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4181000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3541000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7826000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9230000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8571000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7843000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8235000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7851000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8422000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7577000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8182000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6778000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8442000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7964000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7608000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7071000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7374000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7287000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7245000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6873000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7671000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7439000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7066000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7018000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5953000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5603000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5499000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6402000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6310000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6128000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6056000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5846000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5978000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5855000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5847000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5712000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5440000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5416000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5178000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5382000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5096000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5263000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5407000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5146000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4866000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6987000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6868000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6748000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5291000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5541000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4671000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4607000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4714000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4277000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3827000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3382000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3233000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4500000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3761000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4005000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4112000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4299000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3790000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3354000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4069000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4389000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30266000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31058000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>28665000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26909000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27764000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26577000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29343000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26174000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27483000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26142000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24298000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25351000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25875000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26836000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24064000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24085000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24766000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27919000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28167000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31530000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30614000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>966000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1013000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1105000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1195000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1371000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1880000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1738000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1005000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1469000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2111000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3779000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5621000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6233000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7606000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10033000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11033000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12892000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12206000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12138000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11896000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12131000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19279000</v>
+      </c>
+      <c r="E48" s="3">
         <v>18565000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18064000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18295000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17986000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16919000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15789000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15269000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16126000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15372000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14925000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13506000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13291000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12755000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12626000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12561000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12439000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12189000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12094000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12042000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12026000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44197000</v>
+      </c>
+      <c r="E49" s="3">
         <v>32246000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32495000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>34613000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34842000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36925000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36633000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>35863000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33621000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31787000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32871000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29169000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29684000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30433000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31172000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31804000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32467000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>33478000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34477000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35221000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35467000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10986000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10612000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10359000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9835000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9625000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7499000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7112000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6602000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5698000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7919000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8092000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8707000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7554000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7145000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6558000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5308000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5884000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5928000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5872000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5139000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>105694000</v>
+      </c>
+      <c r="E54" s="3">
         <v>93494000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90688000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90847000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>91588000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89800000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90615000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>84913000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84397000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83331000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83965000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82354000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82637000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85130000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85040000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86041000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87872000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91676000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92804000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>96561000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>95377000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3366000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3897000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4034000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4594000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3744000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3448000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3572000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3738000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3198000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3142000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3018000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3318000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3091000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3024000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3162000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3102000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2620000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2934000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2484000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2807000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2412000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3534000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2488000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7251000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6431000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2420000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4718000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6361000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3610000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3411000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3816000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3175000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5308000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3656000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3379000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2055000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3057000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5157000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3181000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5037000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>568000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16851000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16828000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15521000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15076000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16302000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14241000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14012000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13550000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14872000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14075000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13127000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12350000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13580000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11839000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11725000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11743000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12455000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11690000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12643000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12302000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13829000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23872000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23728000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21906000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26361000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27327000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20405000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22178000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23483000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22220000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20684000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20085000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18543000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22206000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18586000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18128000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16960000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18614000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19467000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18758000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19823000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>17204000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30690000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22907000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24033000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24002000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25360000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26321000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21637000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22736000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22677000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22771000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22721000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19806000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19936000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19959000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21501000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21353000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21838000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21706000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23437000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>24274000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12875000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10996000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11361000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13445000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13497000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13804000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14537000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13493000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13440000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13045000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13372000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13420000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13743000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13952000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14187000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13679000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13336000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11872000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12628000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13213000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13591000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67510000</v>
+      </c>
+      <c r="E66" s="3">
         <v>57700000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57394000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63902000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>66271000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>60614000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62973000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>58708000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58490000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56493000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56330000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54815000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55936000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52708000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52511000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52373000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53536000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>53428000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>53341000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56724000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55289000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53696000</v>
+      </c>
+      <c r="E72" s="3">
         <v>51691000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>48777000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48888000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47362000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49724000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48272000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46602000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>45804000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45295000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44065000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42579000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42189000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41523000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41107000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41350000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43701000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45046000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44387000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44133000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38184000</v>
+      </c>
+      <c r="E76" s="3">
         <v>35794000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33294000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26945000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25317000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29186000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27642000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26205000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25907000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26838000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27635000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27539000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26701000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32422000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32529000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33668000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34336000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38248000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39463000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39837000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40088000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3758000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4567000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1545000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3179000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2941000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3002000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3219000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2356000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1901000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2670000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2915000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1827000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1707000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>736000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-56000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1946000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1551000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-595000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E83" s="3">
         <v>759000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>690000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>930000</v>
       </c>
-      <c r="G83" s="3">
-        <v>904000</v>
-      </c>
       <c r="H83" s="3">
-        <v>852000</v>
+        <v>1328000</v>
       </c>
       <c r="I83" s="3">
-        <v>1048000</v>
+        <v>1257000</v>
       </c>
       <c r="J83" s="3">
+        <v>2036000</v>
+      </c>
+      <c r="K83" s="3">
         <v>821000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>936000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>845000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>973000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>898000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>998000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1158000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1226000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1137000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1128000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1154000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1162000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1193000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1155000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5031000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4797000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2490000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1791000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4006000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2173000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3367000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>707000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4794000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4226000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3084000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1336000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3592000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2793000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3382000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1155000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4015000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3317000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>286000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3632000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1208000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-934000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1514000</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1516000</v>
+        <v>-1431000</v>
       </c>
       <c r="I91" s="3">
-        <v>-668000</v>
+        <v>-1445000</v>
       </c>
       <c r="J91" s="3">
+        <v>-567000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-986000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-959000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-782000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-595000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-929000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-653000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-583000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-450000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-715000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-441000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-393000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-339000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-551000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12049000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-738000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-882000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-763000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>191000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>368000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2178000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1660000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>673000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-197000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>671000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3193000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1643000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="T96" s="3">
         <v>-1283000</v>
       </c>
       <c r="U96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5207000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1758000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1372000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1137000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>536000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1461000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-46000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>78000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-97000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>164000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>87000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>65000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-63000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>43000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-54000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-65000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-262000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>154000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>79000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>106000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>253000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-484000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1879000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1416000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1619000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>764000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3687000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2063000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1211000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>139000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2516000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>826000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>115000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5193000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15901000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13521000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13154000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11402000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10627000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10948000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10929000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9353000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12057000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11868000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12397000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11760000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10816000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10998000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10794000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10465000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10037000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10433000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10325000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9930000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9434000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10115000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5334000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3827000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3402000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3029000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2984000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4725000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3260000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3021000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3244000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2874000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3928000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3336000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3018000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3276000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3197000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3414000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3178000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3378000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3249000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3000000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2876000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3300000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10567000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9694000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9752000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8373000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7643000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6223000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7669000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6332000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8813000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8994000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8469000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8424000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7798000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7722000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7597000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7051000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6859000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7055000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7076000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6930000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6558000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6815000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1086000</v>
+        <v>2569000</v>
       </c>
       <c r="E12" s="3">
+        <v>3061000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2437000</v>
       </c>
-      <c r="F12" s="3">
-        <v>4315000</v>
-      </c>
       <c r="G12" s="3">
+        <v>2611000</v>
+      </c>
+      <c r="H12" s="3">
         <v>2404000</v>
       </c>
-      <c r="H12" s="3">
-        <v>2982000</v>
-      </c>
       <c r="I12" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="J12" s="3">
         <v>3330000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2054000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2192000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2376000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3203000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2186000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1931000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2072000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1927000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1794000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2051000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4136000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1740000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1796000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1265000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2213000</v>
+        <v>127000</v>
       </c>
       <c r="E14" s="3">
+        <v>238000</v>
+      </c>
+      <c r="F14" s="3">
         <v>168000</v>
       </c>
-      <c r="F14" s="3">
-        <v>165000</v>
-      </c>
       <c r="G14" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="H14" s="3">
         <v>522000</v>
       </c>
-      <c r="H14" s="3">
-        <v>3430000</v>
-      </c>
       <c r="I14" s="3">
+        <v>3762000</v>
+      </c>
+      <c r="J14" s="3">
         <v>185000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>149000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>168000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1162000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>295000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>159000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>187000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>336000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>589000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>576000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1504000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>567000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>436000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>257000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>291000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4335000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10332000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9946000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8338000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9788000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8095000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13746000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8535000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6999000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8148000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10015000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7561000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8284000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8301000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8427000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8983000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8572000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10211000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7433000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7373000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11464000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5569000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3575000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4816000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1614000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2532000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2394000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2354000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3909000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2568000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2382000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3399000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3255000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2714000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2493000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2038000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1054000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1861000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>114000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2497000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2061000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-465000</v>
+      </c>
+      <c r="E20" s="3">
         <v>543000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>646000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>305000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>654000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>460000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>515000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>596000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>141000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>442000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>196000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>93000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>93000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>362000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>242000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>476000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>208000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>275000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>135000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>124000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>173000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6224000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4953000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6221000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2609000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4116000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3716000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3925000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4871000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3946000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3423000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4465000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4174000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3805000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4013000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3506000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2667000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3197000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1543000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3794000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3378000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E22" s="3">
         <v>209000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>196000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>202000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>199000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>207000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>203000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>212000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>219000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>231000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>233000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>209000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>203000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>190000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>194000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>185000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>190000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>189000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>193000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>182000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>180000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4861000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3909000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5266000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1717000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2987000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2706000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2741000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3838000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2791000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2347000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3259000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3067000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2604000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2665000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2086000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1345000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1879000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2439000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2003000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E24" s="3">
         <v>85000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>695000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>503000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>238000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>69000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>380000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>396000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>619000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>378000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>440000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>615000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>138000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>537000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>707000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>370000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>604000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>317000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>251000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>488000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>447000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-769000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4307000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3824000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4571000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1214000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2749000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2326000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2345000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3219000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2413000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1907000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2644000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2929000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2067000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1958000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1716000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>741000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1562000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-51000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1951000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1556000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-587000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4310000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3820000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4567000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1213000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2745000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2324000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2341000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3219000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2406000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1901000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2670000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2982000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2116000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1950000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1707000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>736000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1554000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-56000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1946000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1551000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-595000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,52 +2178,55 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-62000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>332000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>434000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>523000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>617000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>661000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-50000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-67000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2174,11 +2234,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-543000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-646000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-305000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-654000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-460000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-515000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-596000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-141000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-442000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-196000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-93000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-362000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-242000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-476000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-208000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-275000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-135000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-124000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-173000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4310000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3758000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4567000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1545000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3179000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2941000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3002000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3219000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2356000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1901000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2670000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2915000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1950000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1707000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>736000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-56000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1946000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1551000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-595000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4310000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3758000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4567000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1545000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3179000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2941000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3002000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3219000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2356000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1901000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2670000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2915000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1950000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1707000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>736000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-56000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1946000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1551000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-595000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,84 +2833,88 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8556000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8096000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10016000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8575000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6981000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8062000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7356000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11103000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7425000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9676000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7869000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6659000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8076000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7965000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7826000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5310000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4483000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6092000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7901000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7786000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11708000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6515000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>24</v>
+      <c r="D42" s="3">
+        <v>372000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>24</v>
@@ -2836,8 +2925,8 @@
       <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2846,549 +2935,573 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>774000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>149000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>446000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>722000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>899000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2459000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2284000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2863000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2406000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3294000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4181000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3541000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7826000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9828000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9230000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8571000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7843000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8235000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7851000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8422000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7577000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8182000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6778000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8442000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7964000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7608000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7071000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7374000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7287000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7245000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6873000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7671000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7439000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7066000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7018000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5774000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5953000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5603000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5499000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6402000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6310000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6128000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6056000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5846000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5978000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5855000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5847000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5712000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5440000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5416000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5178000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5382000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5096000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5263000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5407000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5146000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4866000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6654000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6987000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6868000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6748000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5291000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5541000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4671000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4607000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4714000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4277000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3827000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3382000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3233000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4500000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3761000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4005000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4112000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4299000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3790000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3354000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4069000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4389000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31184000</v>
+      </c>
+      <c r="E46" s="3">
         <v>30266000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31058000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>28665000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26909000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>27764000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26577000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29343000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26174000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27483000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26142000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24298000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25351000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25875000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26836000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24064000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24085000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24766000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27919000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28167000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31530000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30614000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E47" s="3">
         <v>966000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1013000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1105000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1195000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1371000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1880000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1738000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1005000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1469000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2111000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3779000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5621000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6233000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7606000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>10033000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11033000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12892000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12206000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12138000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11896000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12131000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19747000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19279000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18565000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18064000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18295000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17986000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16919000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15789000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15269000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16126000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15372000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14925000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13506000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13291000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12755000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12626000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12561000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12439000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12189000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12094000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12042000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12026000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44280000</v>
+      </c>
+      <c r="E49" s="3">
         <v>44197000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>32246000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32495000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>34613000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34842000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36925000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36633000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35863000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33621000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31787000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>32871000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29169000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29684000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30433000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31172000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31804000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32467000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>33478000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34477000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35221000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35467000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10498000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10986000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10612000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10359000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9835000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9625000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7499000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7112000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6602000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5698000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7919000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8092000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8707000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7554000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7145000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6558000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5308000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5884000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5928000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5872000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5139000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106668000</v>
+      </c>
+      <c r="E54" s="3">
         <v>105694000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93494000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90688000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90847000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91588000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>89800000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>90615000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84913000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84397000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83331000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83965000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82354000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82637000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85130000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85040000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86041000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87872000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91676000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92804000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>96561000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>95377000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3715000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4609000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3366000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3897000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4034000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4594000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3744000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3448000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3572000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3738000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3198000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3142000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3018000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3318000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3091000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3024000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3162000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3102000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2620000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2934000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2484000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2807000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1208000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2412000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3534000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2488000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7251000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6431000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2420000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4718000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6361000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3610000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3411000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3816000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3175000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5308000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3656000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3379000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2055000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3057000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5157000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3181000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5037000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>568000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17393000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16851000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16828000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15521000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15076000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16302000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14241000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14012000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13550000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14872000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14075000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13127000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12350000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13580000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11839000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11725000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11743000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12455000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11690000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12643000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12302000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13829000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22316000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23872000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23728000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21906000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26361000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27327000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20405000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22178000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23483000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22220000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20684000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20085000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18543000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22206000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18586000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18128000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16960000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18614000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19467000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18758000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19823000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>17204000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30586000</v>
+      </c>
+      <c r="E61" s="3">
         <v>30690000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22907000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24033000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24002000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25360000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26321000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21637000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22736000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22677000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22771000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22721000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19806000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19936000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19959000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21501000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21353000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21838000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21706000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23437000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>24274000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12813000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12875000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10996000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11361000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13445000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13497000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13804000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14537000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13493000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13440000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13045000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13372000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13420000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13743000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13952000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14187000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13679000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13336000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11872000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12628000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13213000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13591000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65785000</v>
+      </c>
+      <c r="E66" s="3">
         <v>67510000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>57700000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57394000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63902000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>66271000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>60614000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62973000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58708000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58490000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>56493000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56330000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>54815000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55936000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52708000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52511000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52373000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>53536000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>53428000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>53341000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56724000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>55289000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56252000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53696000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51691000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48777000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48888000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47362000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49724000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48272000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46602000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45804000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45295000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44065000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42579000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42189000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41523000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41107000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41350000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43701000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45046000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44387000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44133000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40883000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38184000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35794000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33294000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26945000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25317000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29186000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27642000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26205000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25907000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26838000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27635000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27539000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26701000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32422000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32529000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33668000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34336000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38248000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39463000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39837000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40088000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4310000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3758000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4567000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1545000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3179000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2941000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3002000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3219000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2356000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1901000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2670000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2915000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1950000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1707000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>736000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-56000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1946000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1551000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-595000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1120000</v>
+      </c>
+      <c r="E83" s="3">
         <v>835000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>759000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>690000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>930000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1328000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1257000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2036000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>821000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>936000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>845000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>973000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>898000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>998000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1158000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1226000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1137000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1128000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1154000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1162000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1193000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1155000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4761000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5031000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4797000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2490000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1791000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4006000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2173000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3367000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>707000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4794000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4226000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3084000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1336000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3592000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2793000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3382000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1155000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4015000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3317000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>286000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3632000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-984000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-934000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-567000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-986000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-959000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-782000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-595000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-929000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-653000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-583000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-450000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-715000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-441000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-393000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-339000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-551000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1173000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-738000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-882000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-763000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>191000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>368000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2178000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1660000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>673000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-197000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>671000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3193000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1745000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="U96" s="3">
         <v>-1283000</v>
       </c>
       <c r="V96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3086000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5207000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1758000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1372000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1137000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>536000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1461000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-68000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-46000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>78000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-97000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>164000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>87000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>65000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-63000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>43000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-54000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-65000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-32000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-262000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>154000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>19000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>79000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>106000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>253000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-484000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1416000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1619000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>764000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3687000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2063000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1211000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>139000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2516000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>826000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>115000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5193000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,345 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14593000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15901000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13521000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13154000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11402000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10627000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10948000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10929000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9353000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12057000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11868000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12397000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11760000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10816000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10998000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10794000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10465000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10037000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10433000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10325000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9930000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9434000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10115000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5334000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3827000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3402000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3029000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2984000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4725000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3260000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3021000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3244000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2874000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3928000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3336000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3018000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3276000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3197000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3414000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3178000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3378000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3249000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3000000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2876000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3300000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10444000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10567000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9694000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9752000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8373000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7643000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6223000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7669000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6332000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8813000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8994000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8469000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8424000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7798000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7722000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7597000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7051000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6859000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7055000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7076000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6930000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6558000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6815000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2569000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3061000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2437000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2611000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2404000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2650000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3330000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2054000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2192000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2376000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3203000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2186000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1931000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2061000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2072000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1927000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1794000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2051000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4136000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1740000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1796000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1265000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1182,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E14" s="3">
         <v>127000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>238000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>168000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1869000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>522000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3762000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>185000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>149000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>168000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1162000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>295000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>159000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>187000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>336000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>589000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>576000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1504000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>567000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>436000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>257000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>291000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4335000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9668000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10332000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9946000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8338000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9788000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8095000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13746000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8535000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6999000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8148000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10015000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8361000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7561000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8284000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8301000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8427000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8983000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8572000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10211000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7433000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7373000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11464000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4925000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5569000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3575000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4816000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1614000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2532000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2394000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2354000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3909000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2568000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2382000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3399000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3255000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2714000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2493000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2038000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1054000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1861000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>114000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2497000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2061000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,378 +1547,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-465000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>543000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>646000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>305000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>654000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>460000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>515000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>596000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>141000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>442000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>196000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>93000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>93000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>362000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>242000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>476000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>208000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>275000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>135000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>124000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>173000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5665000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6224000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4953000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6221000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2609000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4116000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3716000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3925000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4871000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3946000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3423000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4465000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4174000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3805000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4013000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3506000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2667000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3197000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1543000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3794000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3378000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E22" s="3">
         <v>243000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>209000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>196000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>202000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>199000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>207000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>203000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>212000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>219000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>231000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>233000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>209000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>203000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>190000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>194000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>185000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>190000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>189000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>193000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>182000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>180000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>4487000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4861000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3909000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5266000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1717000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2987000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2706000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2741000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3838000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2791000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2347000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3259000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3067000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2604000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2665000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2086000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1345000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1879000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2439000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2003000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E24" s="3">
         <v>554000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>85000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>695000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>503000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>238000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>69000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>380000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>396000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>619000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>378000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>440000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>615000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>138000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>537000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>707000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>370000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>604000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>317000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>251000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>488000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>447000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-769000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3949000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4307000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3824000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4571000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1214000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2749000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2326000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2345000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3219000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2413000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1907000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2644000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2929000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2067000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1958000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1716000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>741000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1562000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-51000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1951000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1556000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-587000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4310000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3820000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4567000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1213000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2745000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2324000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2341000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3219000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2406000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1901000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2670000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2982000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2116000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1950000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1707000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>736000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1554000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-56000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1946000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-595000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2190,46 +2250,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-62000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>332000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>434000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>523000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>617000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>661000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-50000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2237,11 +2297,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2255,8 +2315,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E32" s="3">
         <v>465000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-543000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-646000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-305000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-654000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-460000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-515000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-596000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-141000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-442000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-196000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-93000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-93000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-362000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-242000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-476000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-208000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-275000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-135000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-124000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-173000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4310000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3758000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4567000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1545000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3179000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2941000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3002000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3219000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2356000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1901000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2670000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2915000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1827000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1950000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1707000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>736000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-56000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1946000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-595000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4310000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3758000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4567000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1545000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3179000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2941000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3002000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3219000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2356000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1901000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2670000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2915000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1827000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1950000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1707000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>736000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-56000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1946000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-595000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,90 +2919,94 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9675000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8556000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8096000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10016000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8575000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6981000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8062000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7356000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11103000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7425000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9676000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7869000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6659000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8076000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7965000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7826000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5310000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4483000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6092000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7901000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7786000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11708000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6515000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E42" s="3">
         <v>372000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
@@ -2928,8 +3017,8 @@
       <c r="H42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2938,570 +3027,594 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>774000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>149000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>446000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>722000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>899000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2459000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2284000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2863000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2406000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3294000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4181000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3541000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7826000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9643000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9828000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9230000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8571000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7843000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8235000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7851000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8422000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7577000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8182000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6778000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8442000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7964000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7608000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7071000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7374000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7287000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7245000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6873000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7671000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7439000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7066000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7018000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5535000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5774000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5953000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5603000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5499000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6402000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6310000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6128000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6056000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5846000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5978000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5855000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5847000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5712000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5440000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5416000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5178000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5382000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5096000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5263000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5407000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5146000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4866000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6810000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6654000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6987000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6868000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6748000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5291000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5541000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4671000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4607000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4714000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4277000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3827000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3382000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3233000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4500000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3761000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4005000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4112000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4299000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3790000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3354000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4069000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4389000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>32116000</v>
+      </c>
+      <c r="E46" s="3">
         <v>31184000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30266000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31058000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28665000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>26909000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27764000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26577000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29343000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26174000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27483000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26142000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24298000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25351000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25875000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26836000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24064000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24085000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24766000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27919000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28167000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31530000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30614000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E47" s="3">
         <v>959000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>966000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1013000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1105000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1195000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1371000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1880000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1738000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1005000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1469000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2111000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3779000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5621000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6233000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7606000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10033000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11033000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12892000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12206000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12138000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11896000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12131000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20059000</v>
+      </c>
+      <c r="E48" s="3">
         <v>19747000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19279000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18565000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18064000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18295000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17986000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16919000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15789000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15269000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16126000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15372000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14925000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13506000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13291000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12755000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12626000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12561000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12439000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12189000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12094000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12042000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12026000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43710000</v>
+      </c>
+      <c r="E49" s="3">
         <v>44280000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44197000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32246000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32495000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>34613000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34842000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>36925000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36633000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35863000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33621000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31787000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>32871000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29169000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29684000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30433000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31172000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31804000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>32467000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>33478000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34477000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35221000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35467000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10301000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10498000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10986000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10612000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10359000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9835000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9625000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7499000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7112000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6602000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5698000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7919000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8092000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8707000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7554000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7145000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6558000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5308000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5884000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5928000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5872000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5139000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107095000</v>
+      </c>
+      <c r="E54" s="3">
         <v>106668000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>105694000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93494000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90688000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90847000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91588000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>89800000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90615000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84913000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84397000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83331000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83965000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82354000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82637000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85130000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85040000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86041000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87872000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91676000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92804000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>96561000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>95377000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3482000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3715000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4609000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3366000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3897000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4034000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4594000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3744000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3448000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3572000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3738000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3198000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3142000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3018000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3318000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3091000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3024000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3162000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3102000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2620000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2934000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2484000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2807000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2979000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1208000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2412000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3534000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2488000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7251000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6431000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2420000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4718000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6361000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3610000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3411000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3816000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3175000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5308000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3656000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3379000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2055000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3057000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5157000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3181000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5037000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>568000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16707000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17393000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16851000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16828000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15521000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15076000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16302000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14241000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14012000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13550000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14872000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14075000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13127000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12350000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13580000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11839000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11725000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11743000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12455000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11690000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12643000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12302000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>13829000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23168000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22316000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23872000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23728000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21906000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26361000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27327000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20405000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22178000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23483000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22220000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20684000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20085000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18543000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22206000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18586000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18128000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16960000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18614000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19467000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18758000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19823000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17204000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28684000</v>
+      </c>
+      <c r="E61" s="3">
         <v>30586000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30690000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22907000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24033000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24002000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25360000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26321000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26156000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21637000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22736000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22677000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22771000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22721000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19806000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19936000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19959000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21501000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21353000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21838000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21706000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23437000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>24274000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11925000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12813000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12875000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10996000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11361000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13445000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13497000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13804000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14537000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13493000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13440000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13045000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13372000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13420000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13743000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13952000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14187000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13679000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13336000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11872000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12628000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13213000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13591000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63852000</v>
+      </c>
+      <c r="E66" s="3">
         <v>65785000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67510000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57700000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57394000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63902000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>66271000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60614000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62973000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58708000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58490000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>56493000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56330000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>54815000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55936000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52708000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52511000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52373000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>53536000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>53428000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>53341000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56724000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>55289000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58437000</v>
+      </c>
+      <c r="E72" s="3">
         <v>56252000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53696000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51691000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48777000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48888000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47362000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49724000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48272000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46602000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45804000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45295000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44065000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42579000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42189000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41523000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41107000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41350000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>43701000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45046000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44387000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44133000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43243000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40883000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38184000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35794000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33294000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26945000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25317000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29186000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27642000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26205000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25907000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26838000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27635000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27539000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26701000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32422000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32529000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33668000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34336000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38248000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39463000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39837000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40088000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3944000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4310000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3758000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4567000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1545000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3179000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2941000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3002000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3219000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2356000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1901000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2670000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2915000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1827000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1950000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1707000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>736000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-56000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1946000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-595000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1120000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>835000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>759000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>690000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>930000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1328000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1257000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2036000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>821000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>936000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>845000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>973000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>898000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>998000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1158000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1226000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1137000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1128000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1154000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1162000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1193000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1155000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4761000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5031000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4797000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2490000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1791000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4006000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2173000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3367000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>707000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4794000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4226000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3084000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3592000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2793000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3382000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1155000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4015000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3317000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>286000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3632000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1129000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-984000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-934000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-567000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-986000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-959000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-782000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-595000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-929000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-653000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-583000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-450000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-715000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-441000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-393000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-339000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-551000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1077000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-738000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-882000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-763000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>191000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>368000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2178000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1660000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>673000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-197000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>671000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3193000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6717,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1770000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="V96" s="3">
         <v>-1283000</v>
       </c>
       <c r="W96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1777000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5207000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1758000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1372000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1137000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>536000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1461000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-55000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-68000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-46000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>78000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-97000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>164000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>87000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>65000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-63000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>43000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-54000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-65000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-262000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>154000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>19000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>79000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>106000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>253000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-484000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1139000</v>
+      </c>
+      <c r="E102" s="3">
         <v>447000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1416000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1619000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>764000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3687000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2063000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1211000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>110000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>139000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2516000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>826000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>115000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5193000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14959000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14593000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15901000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13521000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13154000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11402000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10627000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10948000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10929000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9353000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12057000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11868000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12397000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11760000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10816000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10998000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10794000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10465000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10037000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10433000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10325000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9930000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9434000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10115000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3880000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4149000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5334000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3827000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3402000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3029000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2984000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4725000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3260000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3021000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3244000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2874000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3928000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3336000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3018000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3276000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3197000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3414000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3178000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3378000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3249000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3000000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2876000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3300000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11079000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10444000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10567000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9694000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9752000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8373000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7643000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6223000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7669000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6332000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8813000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8994000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8469000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8424000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7798000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7722000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7597000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7051000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6859000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7055000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7076000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6930000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6558000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6815000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4398000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2776000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2569000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3061000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2437000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2611000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2404000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2650000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3330000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2054000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2192000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2376000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3203000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2186000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1931000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2061000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2072000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1927000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1794000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2051000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4136000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1740000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1796000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1265000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,85 +1201,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E14" s="3">
         <v>258000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>127000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>238000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>168000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1869000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>522000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3762000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>185000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>149000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>168000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1162000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>295000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>159000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>187000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>336000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>589000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>576000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1504000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>567000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>436000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>257000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>291000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4335000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10947000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9668000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10332000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9946000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8338000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9788000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8095000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13746000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8535000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6999000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8148000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10015000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7561000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8284000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8301000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8427000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8983000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8572000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10211000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7433000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7373000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11464000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4012000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4925000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5569000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3575000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4816000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1614000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2532000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2394000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2354000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3909000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2568000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2382000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3399000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3255000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2714000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2493000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2038000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1054000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1861000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>114000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2497000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2061000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,393 +1580,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-198000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-465000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>543000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>646000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>305000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>654000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>460000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>515000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>596000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>141000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>442000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>196000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>93000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>93000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>362000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>242000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>476000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>208000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>275000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>135000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>124000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>173000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4786000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5665000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6224000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4953000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6221000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2609000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4116000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3716000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3925000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4871000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3946000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3423000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4465000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4174000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3805000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4013000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3506000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2667000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3197000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1543000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3794000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3378000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E22" s="3">
         <v>240000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>243000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>209000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>196000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>202000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>199000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>207000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>203000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>212000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>219000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>231000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>233000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>209000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>203000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>190000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>194000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>185000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>190000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>189000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>193000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>182000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>180000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3583000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4487000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4861000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3909000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5266000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1717000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2987000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2706000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2741000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3838000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2791000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2347000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3259000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3067000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2604000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2665000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2086000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1345000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1879000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2439000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2003000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E24" s="3">
         <v>538000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>554000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>695000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>503000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>238000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>69000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>380000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>396000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>619000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>378000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>440000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>615000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>138000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>537000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>707000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>370000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>604000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>317000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>251000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>488000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>447000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-769000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2010,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3253000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3949000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4307000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3824000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4571000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1214000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2749000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2326000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2345000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3219000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2413000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1907000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2644000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2929000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2067000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1958000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1716000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>741000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1562000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-51000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1951000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1556000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-587000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3944000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4310000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3820000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4567000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1213000</v>
       </c>
-      <c r="I27" s="3">
-        <v>2745000</v>
-      </c>
       <c r="J27" s="3">
+        <v>2738000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2324000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2341000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3219000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2406000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1901000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2670000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2982000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2116000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1950000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1707000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>736000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1554000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-56000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1946000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1551000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-595000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2241,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,46 +2313,46 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-62000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>332000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>434000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>523000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>617000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>661000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-50000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-67000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2300,11 +2360,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2318,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E32" s="3">
         <v>198000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>465000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-543000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-646000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-305000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-654000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-460000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-515000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-596000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-141000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-442000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-196000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-93000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-362000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-242000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-476000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-208000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-275000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-135000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-124000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-173000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3944000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4310000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3758000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4567000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1545000</v>
       </c>
-      <c r="I33" s="3">
-        <v>3179000</v>
-      </c>
       <c r="J33" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2941000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3002000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3219000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2356000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1901000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2670000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2915000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1827000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1950000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1707000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>736000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-56000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1946000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1551000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-595000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3944000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4310000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3758000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4567000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1545000</v>
       </c>
-      <c r="I35" s="3">
-        <v>3179000</v>
-      </c>
       <c r="J35" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2941000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3002000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3219000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2356000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1901000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2670000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2915000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1827000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1950000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1707000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>736000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-56000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1946000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1551000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-595000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,96 +3005,100 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11145000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9675000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8556000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8096000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10016000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8575000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6981000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8062000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7356000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11103000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7425000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9676000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7869000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6659000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8076000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7965000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7826000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5310000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4483000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6092000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7901000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7786000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11708000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6515000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E42" s="3">
         <v>453000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>372000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>24</v>
@@ -3020,8 +3109,8 @@
       <c r="I42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3030,591 +3119,615 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>774000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>149000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>446000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>722000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>899000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2459000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2284000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2863000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2406000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3294000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4181000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3541000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7826000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9482000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9643000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9828000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9230000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8571000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7843000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8235000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7851000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8422000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7577000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8182000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6778000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8442000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7964000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7608000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7071000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7374000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7287000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7245000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6873000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7671000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7439000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7066000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7018000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5614000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5535000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5774000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5953000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5603000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5499000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6402000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6310000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6128000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6056000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5846000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5978000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5855000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5847000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5712000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5440000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5416000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5178000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5382000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5096000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5263000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5407000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5146000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4866000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7217000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6810000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6654000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6987000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6868000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6748000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5291000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5541000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4671000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4607000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4714000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4277000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3827000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3382000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3233000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4500000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3761000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4005000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4112000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4299000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3790000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3354000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4069000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4389000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33561000</v>
+      </c>
+      <c r="E46" s="3">
         <v>32116000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31184000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30266000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31058000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28665000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26909000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27764000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26577000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29343000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26174000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27483000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26142000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24298000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25351000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25875000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26836000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24064000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24085000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24766000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27919000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>28167000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31530000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30614000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1689000</v>
+      </c>
+      <c r="E47" s="3">
         <v>909000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>959000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>966000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1013000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1105000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1195000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1371000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1880000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1738000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1005000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1469000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2111000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3779000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5621000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6233000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7606000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>10033000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11033000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12892000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12206000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12138000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11896000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12131000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20424000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20059000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19747000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19279000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18565000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18064000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18295000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17986000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16919000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15789000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15269000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16126000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15372000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14925000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13506000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13291000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12755000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12626000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12561000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12439000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12189000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12094000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12042000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12026000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42528000</v>
+      </c>
+      <c r="E49" s="3">
         <v>43710000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44280000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44197000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32246000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32495000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>34613000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34842000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36925000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36633000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35863000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33621000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31787000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32871000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29169000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29684000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30433000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31172000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31804000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>32467000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>33478000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34477000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35221000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35467000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8879000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10301000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10498000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10986000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10612000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10359000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9835000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9625000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7499000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7112000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6602000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5698000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7919000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8092000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8707000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7554000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7500000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7145000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6558000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5308000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5884000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5928000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5872000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5139000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107081000</v>
+      </c>
+      <c r="E54" s="3">
         <v>107095000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>106668000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>105694000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>93494000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90688000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90847000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91588000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89800000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90615000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84913000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84397000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83331000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83965000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82354000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82637000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85130000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>85040000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86041000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87872000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91676000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92804000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>96561000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>95377000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4185,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3371000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3482000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3715000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4609000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3366000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3897000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4034000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4594000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3744000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3448000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3572000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3738000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3198000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3142000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3018000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3318000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3091000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3024000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3162000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3102000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2620000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2934000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2484000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2807000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1936000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2979000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1208000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2412000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3534000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2488000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7251000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6431000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2420000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4718000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6361000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3610000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3411000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3816000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3175000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5308000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3656000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3379000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2055000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3057000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5157000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3181000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5037000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>568000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17691000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16707000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17393000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16851000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16828000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15521000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15076000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16302000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14241000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14012000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13550000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14872000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14075000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13127000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12350000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13580000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11839000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11725000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11743000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12455000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11690000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12643000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12302000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13829000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22998000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23168000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22316000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23872000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23728000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21906000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26361000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27327000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20405000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22178000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23483000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22220000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20684000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20085000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18543000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22206000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18586000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18128000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16960000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18614000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19467000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18758000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19823000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17204000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28482000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28684000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>30586000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30690000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22907000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>24033000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24002000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25360000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26321000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26156000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21637000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22736000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22677000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22771000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22721000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19806000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19936000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19959000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21501000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21353000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21838000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21706000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23437000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>24274000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11077000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11925000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12813000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12875000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10996000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11361000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13445000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13497000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13804000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14537000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13493000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13440000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13045000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13372000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13420000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13743000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13952000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14187000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13679000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13336000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11872000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12628000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13213000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13591000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4672,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62623000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63852000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65785000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>67510000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57700000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57394000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63902000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>66271000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60614000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62973000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58708000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58490000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56493000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56330000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54815000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>55936000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52708000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52511000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52373000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>53536000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>53428000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53341000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>56724000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>55289000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59928000</v>
+      </c>
+      <c r="E72" s="3">
         <v>58437000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56252000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53696000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51691000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48777000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48888000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47362000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49724000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48272000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46602000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45804000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45295000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44065000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42579000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42189000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41523000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41107000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41350000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>43701000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>45046000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44387000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44133000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44458000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43243000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40883000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38184000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35794000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33294000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26945000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25317000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29186000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27642000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26205000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25907000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26838000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27635000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27539000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26701000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32422000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32529000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33668000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34336000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38248000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39463000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39837000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40088000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3248000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3944000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4310000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3758000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4567000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1545000</v>
       </c>
-      <c r="I81" s="3">
-        <v>3179000</v>
-      </c>
       <c r="J81" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2941000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3002000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3219000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2356000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1901000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2670000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2915000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1827000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1950000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1707000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>736000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-56000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1946000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1551000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-595000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E83" s="3">
         <v>938000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1120000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>835000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>759000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>690000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>930000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1328000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1257000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2036000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>821000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>936000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>845000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>973000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>898000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>998000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1158000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1226000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1137000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1128000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1154000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1162000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1193000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1155000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5602000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4761000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5031000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4797000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2490000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1791000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4006000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2173000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3367000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>707000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4794000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4226000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3084000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1336000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3592000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2793000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3382000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1155000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4015000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3317000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>286000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3632000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1126000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1129000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-984000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-934000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-567000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-986000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-959000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-782000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-595000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-929000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-653000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-583000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-450000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-715000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-441000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-393000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-339000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-551000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-962000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1077000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-738000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-882000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-763000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>191000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>368000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2178000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1660000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>673000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-197000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-58000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>671000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3193000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,85 +6950,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1747000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1770000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="W96" s="3">
         <v>-1283000</v>
       </c>
       <c r="X96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2702000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1777000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5207000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1758000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1372000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1137000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>536000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1461000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-309000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-55000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-68000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-46000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>78000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-97000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>164000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>87000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>65000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-63000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>43000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-54000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-65000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-32000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-262000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>154000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>19000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>79000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>106000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>253000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-484000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1139000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>447000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1416000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1619000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>764000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3687000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2063000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1211000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>110000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2516000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>826000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>115000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5193000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13830000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14959000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14593000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15901000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13521000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13154000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11402000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10627000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10948000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10929000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9353000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12057000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11868000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12397000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11760000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10816000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10998000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10794000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10465000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10037000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10433000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10325000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9930000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9434000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10115000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3880000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4149000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5334000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3827000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3402000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3029000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2984000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4725000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3260000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3021000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3244000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2874000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3928000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3336000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3018000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3276000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3197000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3414000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3178000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3378000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3249000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3000000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2876000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3300000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9987000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11079000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10444000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10567000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9694000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9752000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8373000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7643000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6223000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7669000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6332000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8813000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8994000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8469000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8424000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7798000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7722000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7597000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7051000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6859000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7055000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7076000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6930000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6558000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6815000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4398000</v>
+        <v>2962000</v>
       </c>
       <c r="E12" s="3">
+        <v>3511000</v>
+      </c>
+      <c r="F12" s="3">
         <v>2776000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2569000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3061000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2437000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2611000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2404000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2650000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3330000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2054000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2192000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2376000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3203000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2186000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1931000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2061000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2072000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1927000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1794000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2051000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4136000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1740000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1796000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1265000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,88 +1220,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>175000</v>
+        <v>900000</v>
       </c>
       <c r="E14" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="F14" s="3">
         <v>258000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>127000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>238000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>168000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1869000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>522000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3762000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>185000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>149000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>168000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1162000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>295000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>159000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>187000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>336000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>589000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>576000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1504000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>567000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>436000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>257000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>291000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4335000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1364,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10392000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10947000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9668000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10332000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9946000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8338000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9788000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8095000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13746000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8535000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6999000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8148000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9300000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10015000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8361000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7561000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8284000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8301000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8427000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8983000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8572000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10211000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7433000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7373000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11464000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3438000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4012000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4925000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5569000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3575000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4816000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1614000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2532000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2394000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2354000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3909000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2568000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2382000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3399000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3255000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2714000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2493000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2038000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1054000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1861000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>114000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2497000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2061000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-185000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-198000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-465000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>543000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>646000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>305000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>654000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>460000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>515000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>596000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>141000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>442000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>196000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>93000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>93000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>362000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>242000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>476000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>208000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>275000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>135000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>124000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>173000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4786000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5665000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6224000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4953000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6221000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2609000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4116000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3716000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3925000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4871000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3946000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3423000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4465000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4174000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3805000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4013000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3506000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2667000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3197000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1543000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3794000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3378000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E22" s="3">
         <v>244000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>243000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>209000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>196000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>202000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>199000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>207000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>203000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>212000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>219000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>231000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>233000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>209000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>203000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>190000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>194000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>185000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>190000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>189000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>193000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>182000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>180000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3513000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3583000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4487000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4861000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3909000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5266000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1717000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2987000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2706000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2741000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3838000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2791000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2347000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3259000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3067000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2604000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2665000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2086000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1345000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1879000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2439000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2003000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E24" s="3">
         <v>330000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>538000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>554000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>85000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>695000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>503000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>238000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>380000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>396000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>619000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>378000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>440000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>615000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>138000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>537000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>707000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>370000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>604000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>317000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>251000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>488000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>447000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-769000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3018000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3253000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3949000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4307000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3824000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4571000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1214000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2749000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2326000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2345000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3219000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2413000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1907000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2644000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2929000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2067000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1958000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1716000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>741000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1562000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-51000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1951000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1556000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-587000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3248000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3944000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4310000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3820000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4567000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1213000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2738000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2324000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2341000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3219000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2406000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2670000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2982000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2116000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1950000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1707000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>736000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1554000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1946000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1551000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-595000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2316,46 +2376,46 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-62000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>332000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>434000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>523000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>617000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>661000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-50000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-67000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2363,11 +2423,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E32" s="3">
         <v>185000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>198000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>465000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-543000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-646000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-305000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-654000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-460000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-515000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-596000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-141000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-442000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-196000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-93000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-93000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-362000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-242000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-476000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-208000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-275000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-135000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-124000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-173000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3248000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3944000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4310000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3758000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4567000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1545000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3172000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2941000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3002000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3219000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2356000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2670000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2915000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1827000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1950000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1707000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>736000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1946000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1551000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-595000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3248000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3944000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4310000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3758000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4567000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1545000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3172000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2941000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3002000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3219000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2356000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2670000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2915000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1827000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1950000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1707000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>736000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1946000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1551000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-595000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,102 +3091,106 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12694000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11145000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9675000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8556000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8096000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10016000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8575000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6981000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8062000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7356000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11103000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7425000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9676000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7869000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6659000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8076000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7965000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7826000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5310000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4483000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6092000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7901000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7786000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6515000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E42" s="3">
         <v>103000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>453000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>372000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>24</v>
@@ -3112,8 +3201,8 @@
       <c r="J42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3122,612 +3211,636 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>774000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>149000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>446000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>722000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>899000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2459000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2284000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2863000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2406000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3294000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4181000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3541000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7826000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9450000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9482000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9643000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9828000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9230000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8571000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7843000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8235000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7851000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8422000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7577000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8182000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6778000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8442000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7964000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7608000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7071000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7374000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7287000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7245000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6873000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7671000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7439000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7066000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7018000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5911000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5614000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5535000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5774000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5953000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5603000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5499000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6402000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6310000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6128000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6056000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5846000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5978000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5855000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5847000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5712000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5440000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5416000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5178000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5382000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5096000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5263000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5407000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5146000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>4866000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7169000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7217000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6810000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6654000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6987000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6868000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6748000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5291000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5541000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4671000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4607000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4714000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4277000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3827000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3382000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3233000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4500000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3761000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4005000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4112000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4299000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3790000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3354000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4069000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4389000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35722000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33561000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32116000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31184000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30266000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31058000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28665000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26909000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27764000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26577000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29343000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26174000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27483000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26142000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24298000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25351000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25875000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26836000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24064000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24085000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24766000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27919000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>28167000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>31530000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30614000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1847000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1689000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>909000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>966000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1013000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1105000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1195000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1371000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1880000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1738000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1005000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1469000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2111000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3779000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5621000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6233000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7606000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>10033000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11033000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12892000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12206000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12138000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11896000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12131000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21422000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20424000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20059000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19747000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19279000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18565000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18064000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18295000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17986000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16919000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15789000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15269000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16126000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15372000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14925000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13506000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13291000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12755000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12626000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12561000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12439000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12189000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12094000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12042000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12026000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41473000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42528000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43710000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44280000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44197000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32246000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32495000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>34613000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34842000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36925000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36633000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35863000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33621000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31787000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32871000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29169000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29684000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30433000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31172000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31804000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>32467000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>33478000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34477000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35221000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35467000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8696000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8879000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10301000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10498000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10986000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10612000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10359000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9835000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9625000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7499000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7112000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6602000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5698000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7919000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8092000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8707000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7554000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7500000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7145000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6558000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5308000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5884000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5928000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5872000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5139000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109160000</v>
+      </c>
+      <c r="E54" s="3">
         <v>107081000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107095000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>106668000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105694000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>93494000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>90688000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>90847000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91588000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89800000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90615000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84913000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84397000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83331000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83965000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82354000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82637000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>85130000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>85040000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86041000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87872000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91676000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92804000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>96561000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>95377000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4264000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3371000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3482000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3715000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4609000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3366000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3897000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4034000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4594000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3744000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3448000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3572000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3738000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3198000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3142000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3018000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3318000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3091000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3024000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3162000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3102000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2620000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2934000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2484000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2807000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1946000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1936000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2979000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1208000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2412000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3534000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2488000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7251000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6431000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2420000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4718000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6361000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3610000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3411000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3816000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3175000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5308000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3656000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3379000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2055000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3057000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5157000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3181000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5037000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>568000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18029000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17691000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16707000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17393000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16851000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16828000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15521000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15076000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16302000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14241000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14012000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13550000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14872000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14075000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13127000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12350000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13580000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11839000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11725000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11743000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12455000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11690000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12643000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12302000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13829000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24239000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22998000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23168000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22316000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23872000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23728000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21906000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26361000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27327000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20405000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22178000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23483000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22220000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20684000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20085000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18543000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22206000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18586000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18128000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16960000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18614000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19467000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18758000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19823000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17204000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28745000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28482000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28684000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>30586000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30690000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22907000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>24033000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24002000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25360000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26321000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26156000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21637000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22736000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22677000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22771000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22721000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19806000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19936000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19959000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21501000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21353000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21838000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21706000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23437000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>24274000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10118000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11077000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11925000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12813000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12875000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10996000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11361000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13445000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13497000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13804000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14537000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13493000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13440000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13045000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13372000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13420000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13743000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13952000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14187000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13679000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13336000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11872000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12628000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13213000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13591000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63169000</v>
+      </c>
+      <c r="E66" s="3">
         <v>62623000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63852000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>65785000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67510000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>57700000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57394000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63902000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66271000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60614000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62973000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58708000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58490000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56493000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56330000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54815000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>55936000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>52708000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52511000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52373000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>53536000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53428000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53341000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>56724000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>55289000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>61081000</v>
+      </c>
+      <c r="E72" s="3">
         <v>59928000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58437000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56252000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53696000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51691000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48777000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48888000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47362000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49724000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>48272000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46602000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45804000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45295000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44065000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42579000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42189000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41523000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41107000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41350000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>43701000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>45046000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44387000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44133000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45991000</v>
+      </c>
+      <c r="E76" s="3">
         <v>44458000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43243000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40883000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38184000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35794000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33294000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26945000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25317000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29186000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27642000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26205000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25907000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26838000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27635000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27539000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26701000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32422000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32529000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33668000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34336000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>38248000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39463000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39837000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40088000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3017000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3248000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3944000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4310000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3758000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4567000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1545000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3172000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2941000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3002000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3219000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2356000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2670000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2915000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1827000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1950000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1707000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>736000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1946000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1551000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-595000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>892000</v>
+      </c>
+      <c r="E83" s="3">
         <v>959000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>938000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1120000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>835000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>759000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>690000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>930000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1328000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1257000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2036000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>821000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>936000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>845000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>973000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>898000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>998000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1158000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1226000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1137000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1128000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1154000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1162000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1193000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1155000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4430000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5602000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4302000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4761000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5031000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4797000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2490000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1791000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4006000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2173000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3367000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>707000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4794000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4226000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3084000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1336000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3592000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2793000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3382000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1155000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4015000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3317000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>286000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3632000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1149000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1129000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-984000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-934000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-567000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-986000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-959000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-782000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-595000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-929000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-653000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-583000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-450000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-715000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-441000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-393000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-339000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-551000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1748000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-962000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1077000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-738000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-882000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-763000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>191000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>368000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2178000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1660000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>673000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-197000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-58000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>671000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3193000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,88 +7183,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1750000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1747000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1770000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="X96" s="3">
         <v>-1283000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1554000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2702000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1777000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5207000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1758000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1372000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1137000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>536000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1461000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-412000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-309000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-55000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-68000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-46000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>78000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-97000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>164000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>87000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>65000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-63000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>43000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-65000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-32000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-262000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>154000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>19000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>79000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>106000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>253000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-484000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1526000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1139000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>447000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1416000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1619000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>764000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3687000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2063000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1211000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>110000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>139000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2516000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>826000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>115000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5193000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,381 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14487000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13830000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14959000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14593000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15901000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13521000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13154000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11402000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10627000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10948000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10929000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9353000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12057000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11868000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12397000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11760000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10816000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10998000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10794000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10465000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10037000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10433000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10325000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9930000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9434000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10115000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3897000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3843000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3880000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4149000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5334000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3827000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3402000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3029000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2984000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4725000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3260000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3021000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3244000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2874000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3928000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3336000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3018000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3276000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3197000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3414000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3178000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3378000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3249000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3000000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2876000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3300000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10590000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9987000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11079000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10444000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10567000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9694000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9752000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8373000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7643000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6223000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7669000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6332000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8813000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8994000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8469000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8424000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7798000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7722000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7597000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7051000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6859000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7055000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7076000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6930000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6558000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6815000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1069,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4276000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2962000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3511000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2776000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2569000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3061000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2437000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2611000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2404000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2650000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3330000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2054000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2192000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2376000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3203000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2186000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1931000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2061000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2072000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1927000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1794000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2051000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4136000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1740000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1796000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1265000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,91 +1239,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-475500</v>
+      </c>
+      <c r="E14" s="3">
         <v>900000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1062000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>258000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>127000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>238000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>168000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1869000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>522000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3762000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>185000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>149000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>168000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1162000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>295000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>159000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>187000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>336000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>589000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>576000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1504000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>567000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>436000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>257000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>291000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4335000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,8 +1411,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10175500</v>
+      </c>
+      <c r="E17" s="3">
         <v>10392000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10947000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9668000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10332000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9946000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8338000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9788000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8095000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13746000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8535000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6999000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8148000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9300000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10015000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7561000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8284000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8301000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8427000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8983000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8572000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10211000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7433000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7373000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11464000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>4311500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3438000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4012000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4925000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5569000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3575000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4816000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1614000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2532000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2394000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2354000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3909000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2568000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2382000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3399000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3255000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2714000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2493000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2038000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1054000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1861000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>114000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2497000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2061000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,423 +1646,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-419500</v>
+      </c>
+      <c r="E20" s="3">
         <v>310000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-185000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-198000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-465000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>543000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>646000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>305000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>654000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>460000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>515000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>596000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>141000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>442000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>196000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>93000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>21000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>93000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>362000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>242000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>476000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>208000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>275000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>135000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>124000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>173000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>4883000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4640000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4786000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5665000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6224000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4953000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6221000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2609000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4116000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3716000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3925000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4871000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3946000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3423000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4465000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4174000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3805000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4013000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3506000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2667000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3197000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1543000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3794000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3378000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E22" s="3">
         <v>235000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>244000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>240000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>243000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>196000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>202000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>199000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>207000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>203000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>212000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>219000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>231000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>233000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>209000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>203000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>190000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>194000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>185000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>190000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>189000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>193000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>182000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>180000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>3650000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3513000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3583000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4487000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4861000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3909000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5266000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1717000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2987000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2706000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2741000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3838000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2791000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2347000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3259000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3067000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2604000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2665000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2086000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1345000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1879000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2439000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2003000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E24" s="3">
         <v>495000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>330000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>538000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>554000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>85000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>695000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>503000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>238000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>380000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>396000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>619000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>378000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>440000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>615000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>138000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>537000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>707000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>370000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>604000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>317000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>251000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>488000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>447000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-769000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2112,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2825000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3018000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3253000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3949000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4307000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3824000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4571000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1214000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2749000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2326000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2345000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3219000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2413000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1907000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2644000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2929000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2067000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1958000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1716000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>741000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1562000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-51000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1951000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1556000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-587000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3017000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3248000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3944000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4310000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3820000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4567000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1213000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2738000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2324000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2341000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3219000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2406000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1901000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2670000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2982000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2116000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1950000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1707000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>736000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1554000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1946000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1551000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-595000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2361,13 +2418,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2379,46 +2439,46 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-62000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>332000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>434000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>523000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>617000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>661000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-67000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2426,11 +2486,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2444,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>419500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-310000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>185000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>198000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>465000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-543000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-646000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-305000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-654000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-460000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-515000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-596000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-141000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-442000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-196000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-93000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-21000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-93000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-362000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-242000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-476000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-208000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-275000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-135000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-124000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-173000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3017000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3248000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3944000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4310000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3758000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4567000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1545000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3172000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2941000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3002000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3219000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2356000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1901000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2670000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2915000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1827000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1950000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1707000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>736000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1946000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1551000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-595000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3017000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3248000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3944000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4310000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3758000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4567000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1545000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3172000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2941000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3002000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3219000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2356000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1901000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2670000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2915000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1827000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1950000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1707000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>736000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1946000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1551000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-595000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,108 +3177,112 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9707000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12694000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11145000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9675000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8556000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8096000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10016000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8575000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6981000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8062000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7356000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11103000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7425000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9676000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7869000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6659000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8076000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7965000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7826000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5310000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4483000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6092000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7901000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7786000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6515000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E42" s="3">
         <v>498000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>453000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>372000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -3204,8 +3293,8 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3214,633 +3303,657 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>774000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>149000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>446000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>722000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>899000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2459000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2284000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2863000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2406000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3294000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>4181000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3541000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7826000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10415000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9450000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9482000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9643000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9828000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9230000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8571000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7843000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8235000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7851000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8422000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7577000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8182000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6778000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8442000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7964000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7608000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7071000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7374000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7287000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7245000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6873000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7671000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7439000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7066000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7018000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5863000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5911000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5614000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5535000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5774000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5953000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5603000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5499000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6402000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6310000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6128000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6056000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5846000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5978000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5855000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5847000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5712000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5440000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5416000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5178000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5382000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5096000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5263000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5407000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5146000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>4866000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6737000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7169000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7217000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6810000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6654000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6987000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6868000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6748000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5291000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5541000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4671000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4607000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4714000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4277000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3827000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3382000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3233000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4500000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3761000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4005000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4112000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4299000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3790000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3354000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4069000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4389000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33402000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35722000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33561000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32116000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31184000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30266000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31058000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28665000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26909000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27764000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26577000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29343000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26174000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27483000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26142000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24298000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25351000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25875000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26836000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24064000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24085000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24766000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27919000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28167000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>31530000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>30614000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2232000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1847000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1689000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>909000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>959000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>966000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1013000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1105000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1195000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1371000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1880000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1738000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1005000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2111000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3779000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5621000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6233000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7606000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10033000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11033000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12892000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12206000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12138000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11896000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12131000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21758000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21422000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20424000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20059000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19747000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19279000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18565000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18064000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18295000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17986000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16919000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15789000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15269000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16126000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15372000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14925000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13506000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13291000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12755000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12626000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12561000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12439000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12189000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12094000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12042000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12026000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41066000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41473000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42528000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43710000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44280000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44197000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>32246000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32495000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34613000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34842000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36925000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36633000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35863000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>33621000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31787000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>32871000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29169000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29684000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30433000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31172000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31804000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>32467000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>33478000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34477000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35221000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35467000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9338000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8696000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8879000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10301000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10498000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>10986000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>10612000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10359000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9835000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9625000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7499000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7112000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6602000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5698000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7919000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8092000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8707000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7554000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7500000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7145000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6558000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5308000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5884000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5928000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5872000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5139000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107796000</v>
+      </c>
+      <c r="E54" s="3">
         <v>109160000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107081000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107095000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>106668000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105694000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>93494000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>90688000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90847000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91588000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89800000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90615000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84913000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84397000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83331000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83965000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82354000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82637000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>85130000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>85040000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86041000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>87872000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91676000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92804000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>96561000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>95377000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4445,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3680000</v>
+      </c>
+      <c r="E57" s="3">
         <v>4264000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3371000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3482000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3715000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4609000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3366000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3897000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4034000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4594000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3744000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3448000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3572000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3738000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3198000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3142000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3018000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3318000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3091000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3024000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3162000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3102000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2620000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2934000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2484000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2807000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2672000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1946000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1936000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2979000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1208000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2412000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3534000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2488000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7251000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6431000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2420000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4718000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6361000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3610000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3411000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3816000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3175000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5308000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3656000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3379000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2055000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3057000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5157000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3181000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5037000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>568000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16779000</v>
+      </c>
+      <c r="E59" s="3">
         <v>18029000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17691000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16707000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17393000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16851000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16828000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15521000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15076000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16302000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14241000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14012000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13550000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14872000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14075000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13127000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12350000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13580000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11839000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11725000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11743000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12455000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11690000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12643000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12302000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13829000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23131000</v>
+      </c>
+      <c r="E60" s="3">
         <v>24239000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22998000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>23168000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22316000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23872000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23728000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21906000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26361000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27327000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20405000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22178000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23483000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22220000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20684000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20085000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18543000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22206000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18586000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18128000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16960000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18614000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19467000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>18758000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19823000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>17204000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28074000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28745000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28482000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28684000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30586000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30690000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22907000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>24033000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24002000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25360000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26321000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26156000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21637000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22736000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22677000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22771000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22721000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19806000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19936000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19959000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21501000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21353000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21838000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21706000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>23437000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>24274000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9686000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10118000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11077000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11925000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12813000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12875000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10996000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11361000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13445000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13497000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13804000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14537000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13493000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13440000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13045000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13372000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13420000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13743000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13952000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14187000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13679000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13336000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11872000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12628000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13213000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>13591000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4980,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>60962000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63169000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62623000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63852000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>65785000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67510000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>57700000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57394000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63902000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66271000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60614000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62973000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58708000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58490000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56493000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56330000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54815000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>55936000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>52708000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52511000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52373000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53536000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53428000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53341000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>56724000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>55289000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>62039000</v>
+      </c>
+      <c r="E72" s="3">
         <v>61081000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>59928000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>58437000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56252000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53696000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51691000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48777000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48888000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47362000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49724000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>48272000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46602000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45804000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45295000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44065000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42579000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42189000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41523000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41107000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41350000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>43701000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>45046000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44387000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>44133000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46834000</v>
+      </c>
+      <c r="E76" s="3">
         <v>45991000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44458000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43243000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40883000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38184000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35794000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33294000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26945000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25317000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29186000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27642000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26205000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25907000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26838000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27635000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27539000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26701000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32422000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32529000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33668000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34336000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>38248000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39463000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39837000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40088000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3017000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3248000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3944000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4310000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3758000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4567000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1545000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3172000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2941000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3002000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3219000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2356000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1901000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2670000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2915000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1827000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1950000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1707000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>736000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1946000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1551000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-595000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E83" s="3">
         <v>892000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>959000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>938000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1120000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>835000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>759000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>690000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>930000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1328000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1257000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2036000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>821000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>936000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>845000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>973000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>898000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>998000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1158000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1226000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1137000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1128000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1154000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1162000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1193000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1155000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1339000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4430000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5602000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4302000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4761000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5031000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4797000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2490000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1791000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4006000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2173000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3367000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>707000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4794000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4226000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3084000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1336000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3592000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2793000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3382000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1155000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4015000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3317000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>286000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3632000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1007000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1149000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1129000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-984000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-934000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-567000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-986000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-959000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-782000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-595000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-929000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-653000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-583000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-450000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-715000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-441000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-393000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-339000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-551000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2359000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-962000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1077000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-738000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-882000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-763000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>191000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>368000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2178000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1660000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>673000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-197000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>671000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3193000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,91 +7416,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1853000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1750000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1747000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1770000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="Y96" s="3">
         <v>-1283000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2054000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2702000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1777000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5207000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1758000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1372000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1137000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>536000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1461000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E101" s="3">
         <v>366000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-412000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-309000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-55000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-68000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-46000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>78000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-97000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>164000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>87000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>65000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-63000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>43000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-54000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-65000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-32000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-262000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>154000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>19000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>79000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>106000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>253000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-484000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2987000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1494000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1526000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1139000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>447000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1416000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1619000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>764000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3687000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2063000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1211000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>110000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>139000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2516000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>826000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>115000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5193000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15035000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14487000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13830000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14959000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14593000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15901000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13521000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13154000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11402000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10627000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10948000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10929000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9353000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12057000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11868000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12397000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11760000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10816000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10998000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10794000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10465000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10037000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10433000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10325000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9930000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9434000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10115000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3992000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3897000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3843000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3880000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4149000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5334000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3827000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3402000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3029000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2984000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4725000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3260000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3021000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3244000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2874000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3928000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3336000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3018000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3276000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3197000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3414000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3178000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3378000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3249000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3000000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2876000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3300000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11043000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10590000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9987000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11079000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10444000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10567000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9694000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9752000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8373000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7643000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6223000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7669000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6332000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8813000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8994000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8469000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8424000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7798000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7722000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7597000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7051000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6859000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7055000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7076000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6930000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6558000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6815000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,94 +1082,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13320000</v>
+      </c>
+      <c r="E12" s="3">
         <v>4276000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2962000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3511000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2776000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2569000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3061000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2437000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2611000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2404000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2650000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3330000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2054000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2192000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2376000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3203000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2186000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1931000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2061000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2072000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1927000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1794000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2051000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4136000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1740000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1796000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1265000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,94 +1258,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-475500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1062000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>258000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>127000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>238000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>168000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1869000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>522000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3762000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>185000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>149000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>168000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1162000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>295000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>159000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>187000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>336000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>589000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>576000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1504000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>567000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>436000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>257000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>291000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4335000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1414,8 +1436,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>20198000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10175500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10392000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10947000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9668000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10332000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9946000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8338000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9788000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8095000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13746000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8535000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6999000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8148000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9300000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10015000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7561000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8284000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8301000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8427000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8983000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8572000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10211000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7433000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7373000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11464000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-5163000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4311500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3438000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4012000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4925000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5569000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3575000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4816000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1614000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2532000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2394000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2354000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3909000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2568000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2382000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3399000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3255000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2714000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2493000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2038000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1054000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1861000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>114000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2497000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2061000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1647,438 +1679,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-419500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>310000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-185000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-198000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-465000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>543000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>646000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>305000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>654000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>460000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>515000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>596000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>141000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>442000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>196000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>93000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>93000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>362000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>242000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>476000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>208000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>275000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>135000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>124000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>173000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-4155000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4883000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4640000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4786000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5665000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6224000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4953000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6221000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2609000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4116000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3716000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3925000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4871000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3946000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3423000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4465000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4174000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3805000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4013000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3506000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2667000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3197000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1543000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3794000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3378000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-21000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E22" s="3">
         <v>242000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>235000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>244000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>240000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>243000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>196000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>202000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>199000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>207000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>203000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>209000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>212000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>219000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>231000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>233000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>209000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>203000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>190000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>194000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>185000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>190000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>189000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>193000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>182000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>180000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-5335000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3650000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3513000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3583000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4487000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4861000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3909000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5266000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1717000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2987000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2706000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2741000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3838000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2791000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2347000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3259000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3067000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2604000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2665000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2086000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1345000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1879000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2439000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2003000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E24" s="3">
         <v>825000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>495000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>330000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>538000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>554000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>85000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>695000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>503000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>238000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>380000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>396000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>619000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>378000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>440000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>615000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>138000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>537000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>707000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>370000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>604000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>317000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>251000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>488000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>447000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-769000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5972000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2825000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3018000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3253000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3949000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4307000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3824000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4571000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1214000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2749000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2326000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2345000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2413000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1907000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2644000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2929000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2067000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1958000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1716000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>741000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1562000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-51000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1951000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1556000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-587000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5975000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2821000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3017000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3248000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3944000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4310000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3820000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4567000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1213000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2738000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2324000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2341000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2406000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1901000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2670000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2982000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2116000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1950000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1707000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>736000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1554000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1946000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1551000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-595000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2421,16 +2478,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2442,46 +2502,46 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-62000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>332000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>434000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>523000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>617000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>661000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-50000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-67000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2489,11 +2549,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2507,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E32" s="3">
         <v>419500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-310000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>185000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>198000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>465000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-543000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-646000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-305000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-654000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-460000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-515000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-596000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-141000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-442000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-196000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-93000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-93000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-362000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-242000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-476000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-208000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-275000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-135000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-124000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-173000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5975000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2821000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3017000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3248000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3944000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4310000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3758000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4567000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1545000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3172000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2941000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3002000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2356000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1901000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2670000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2915000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1827000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1950000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1707000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>736000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1946000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1551000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-595000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5975000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2821000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3017000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3248000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3944000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4310000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3758000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4567000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1545000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3172000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2941000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3002000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2356000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1901000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2670000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2915000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1827000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1950000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1707000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>736000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1946000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1551000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-595000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,114 +3263,118 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5660000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9707000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12694000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11145000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9675000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8556000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8096000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10016000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8575000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6981000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8062000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7356000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11103000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7425000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9676000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7869000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6659000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8076000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7965000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7826000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5310000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4483000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6092000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7901000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7786000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6515000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E42" s="3">
         <v>680000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>498000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>103000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>453000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>372000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -3296,8 +3385,8 @@
       <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3306,654 +3395,678 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>774000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>149000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>446000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>722000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>899000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2459000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2284000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2863000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2406000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3294000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>4181000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3541000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7826000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10415000</v>
+        <v>11748000</v>
       </c>
       <c r="E43" s="3">
-        <v>9450000</v>
+        <v>11104000</v>
       </c>
       <c r="F43" s="3">
-        <v>9482000</v>
+        <v>10110000</v>
       </c>
       <c r="G43" s="3">
-        <v>9643000</v>
+        <v>10118000</v>
       </c>
       <c r="H43" s="3">
-        <v>9828000</v>
+        <v>10334000</v>
       </c>
       <c r="I43" s="3">
+        <v>10473000</v>
+      </c>
+      <c r="J43" s="3">
         <v>9230000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8571000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7843000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8235000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7851000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8422000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7577000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8182000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6778000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8442000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7964000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7608000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7071000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7374000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7287000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7245000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6873000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7671000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7439000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7066000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7018000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5930000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5863000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5911000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5614000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5535000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5774000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5953000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5603000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5499000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6402000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6310000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6128000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6056000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5846000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5978000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5855000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5847000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5712000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5440000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5416000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5178000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5382000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5096000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5263000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5407000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5146000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>4866000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6737000</v>
+        <v>5921000</v>
       </c>
       <c r="E45" s="3">
-        <v>7169000</v>
+        <v>6048000</v>
       </c>
       <c r="F45" s="3">
-        <v>7217000</v>
+        <v>6509000</v>
       </c>
       <c r="G45" s="3">
-        <v>6810000</v>
+        <v>6581000</v>
       </c>
       <c r="H45" s="3">
-        <v>6654000</v>
+        <v>6119000</v>
       </c>
       <c r="I45" s="3">
+        <v>6009000</v>
+      </c>
+      <c r="J45" s="3">
         <v>6987000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6868000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6748000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5291000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5541000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4671000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4607000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4714000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4277000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3827000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3382000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3233000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4500000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3761000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4005000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4112000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4299000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3790000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3354000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4069000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4389000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29977000</v>
+      </c>
+      <c r="E46" s="3">
         <v>33402000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35722000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33561000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32116000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31184000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30266000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31058000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28665000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26909000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27764000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26577000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29343000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26174000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27483000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26142000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24298000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25351000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25875000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26836000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24064000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24085000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>24766000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27919000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>28167000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>31530000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>30614000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2232000</v>
+        <v>2785000</v>
       </c>
       <c r="E47" s="3">
-        <v>1847000</v>
+        <v>2957000</v>
       </c>
       <c r="F47" s="3">
-        <v>1689000</v>
+        <v>2445000</v>
       </c>
       <c r="G47" s="3">
-        <v>909000</v>
+        <v>2344000</v>
       </c>
       <c r="H47" s="3">
-        <v>959000</v>
+        <v>1714000</v>
       </c>
       <c r="I47" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="J47" s="3">
         <v>966000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1013000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1105000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1195000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1371000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1880000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1738000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1005000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1469000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2111000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3779000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5621000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6233000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7606000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10033000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>11033000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12892000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12206000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12138000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>11896000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>12131000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22231000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21758000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21422000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20424000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20059000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19747000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19279000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18565000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18064000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18295000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17986000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16919000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15789000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15269000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16126000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15372000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14925000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13506000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13291000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12755000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12626000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12561000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12439000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12189000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12094000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12042000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12026000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40860000</v>
+      </c>
+      <c r="E49" s="3">
         <v>41066000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41473000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>42528000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>43710000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>44280000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44197000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>32246000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32495000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34613000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34842000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36925000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36633000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35863000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>33621000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31787000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>32871000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29169000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29684000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30433000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31172000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31804000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>32467000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>33478000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34477000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35221000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35467000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9338000</v>
+        <v>8616000</v>
       </c>
       <c r="E52" s="3">
-        <v>8696000</v>
+        <v>8613000</v>
       </c>
       <c r="F52" s="3">
-        <v>8879000</v>
+        <v>8098000</v>
       </c>
       <c r="G52" s="3">
-        <v>10301000</v>
+        <v>8224000</v>
       </c>
       <c r="H52" s="3">
-        <v>10498000</v>
+        <v>9496000</v>
       </c>
       <c r="I52" s="3">
+        <v>9298000</v>
+      </c>
+      <c r="J52" s="3">
         <v>10986000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10612000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10359000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9835000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9625000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7499000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7112000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6602000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5698000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7919000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8092000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8707000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7554000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7500000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7145000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6558000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5308000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5884000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5928000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5872000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5139000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>104469000</v>
+      </c>
+      <c r="E54" s="3">
         <v>107796000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109160000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>107081000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107095000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>106668000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105694000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>93494000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90688000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90847000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91588000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89800000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>90615000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84913000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84397000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83331000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83965000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82354000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82637000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>85130000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>85040000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86041000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>87872000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>91676000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92804000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>96561000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>95377000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3442000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3680000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4264000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3371000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3482000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3715000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4609000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3366000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3897000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4034000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4594000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3744000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3448000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3572000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3738000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3198000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3142000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3018000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3318000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3091000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3024000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3162000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3102000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2620000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2934000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2484000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2807000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2839000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2672000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1946000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1936000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2979000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1208000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2412000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3534000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2488000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7251000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6431000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2420000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4718000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6361000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3610000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3411000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3816000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3175000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5308000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3656000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3379000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2055000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3057000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5157000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3181000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5037000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>568000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17113000</v>
+      </c>
+      <c r="E59" s="3">
         <v>16779000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18029000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17691000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16707000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17393000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16851000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16828000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15521000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15076000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16302000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14241000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14012000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13550000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14872000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14075000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13127000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12350000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13580000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11839000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11725000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11743000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12455000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11690000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12643000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12302000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>13829000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23394000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23131000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24239000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22998000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23168000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22316000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>23872000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23728000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21906000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26361000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27327000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20405000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22178000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23483000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22220000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20684000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20085000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18543000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22206000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18586000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18128000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16960000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>18614000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19467000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>18758000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19823000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>17204000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34072000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28074000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28745000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28482000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28684000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30586000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30690000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22907000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>24033000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24002000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25360000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26321000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26156000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21637000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22736000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22677000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22771000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22721000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19806000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19936000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19959000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21501000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21353000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21838000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>21706000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>23437000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>24274000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8261000</v>
+      </c>
+      <c r="E62" s="3">
         <v>9686000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10118000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11077000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11925000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12813000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12875000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10996000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11361000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13445000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13497000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13804000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14537000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13493000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13440000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13045000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13372000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13420000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13743000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13952000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14187000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13679000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13336000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11872000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>12628000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>13213000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>13591000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65776000</v>
+      </c>
+      <c r="E66" s="3">
         <v>60962000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63169000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62623000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63852000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65785000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67510000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57700000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57394000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63902000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66271000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60614000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62973000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58708000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58490000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56493000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56330000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>54815000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55936000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>52708000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52511000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52373000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53536000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53428000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>53341000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>56724000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>55289000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54198000</v>
+      </c>
+      <c r="E72" s="3">
         <v>62039000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>61081000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>59928000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58437000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56252000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53696000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51691000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48777000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48888000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47362000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51107000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49724000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48272000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46602000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45804000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45295000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44065000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42579000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42189000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>41523000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41107000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>41350000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>43701000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>45046000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>44387000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>44133000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38693000</v>
+      </c>
+      <c r="E76" s="3">
         <v>46834000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45991000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44458000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43243000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40883000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38184000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35794000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33294000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26945000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25317000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29186000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27642000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26205000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25907000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26838000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27635000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27539000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26701000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32422000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32529000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33668000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34336000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>38248000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39463000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39837000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40088000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5975000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2821000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3017000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3248000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3944000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4310000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3758000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4567000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1545000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3172000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2941000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3002000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3219000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2356000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1901000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2670000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2915000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1827000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1950000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1707000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>736000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-56000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1946000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1551000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-595000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E83" s="3">
         <v>991000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>892000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>959000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>938000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1120000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>835000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>759000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>690000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>930000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1328000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1257000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2036000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>821000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>936000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>845000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>973000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>898000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>998000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1158000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1226000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1137000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1128000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1154000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1162000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1193000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1155000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3704000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4430000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5602000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4302000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4761000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5031000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4797000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2490000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1791000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4006000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2173000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3367000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>707000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4794000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4226000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3084000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1336000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3592000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2793000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3382000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1155000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4015000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3317000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>286000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3632000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-965000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1007000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1149000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1129000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-984000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-934000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-567000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-986000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-959000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-782000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-595000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-929000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-653000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-583000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-450000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-715000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-441000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-393000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-339000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-551000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11443000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2359000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-962000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1077000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-738000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-882000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-763000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>191000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>368000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2178000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1660000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>673000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-197000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>671000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3193000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,94 +7649,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1885000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1853000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1750000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1747000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1770000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="Z96" s="3">
         <v>-1283000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3758000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2054000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2702000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1777000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5207000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1758000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1372000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1137000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>536000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1461000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E101" s="3">
         <v>87000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>366000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-412000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-309000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-55000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-68000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-46000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>78000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-97000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>164000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>87000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>65000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>43000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-54000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-65000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-32000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-262000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>154000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>19000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>79000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>106000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>253000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-484000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4074000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2987000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1494000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1526000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1139000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>447000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1416000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1619000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>764000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3687000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2063000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1211000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>110000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>139000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2516000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>826000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>115000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>5193000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1299000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MRK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,405 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15962000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15035000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14487000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13830000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14959000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14593000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15901000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13521000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13154000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11402000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10627000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10948000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10929000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9353000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12057000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11868000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12397000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11760000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10816000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10998000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10794000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10465000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10037000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10433000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10325000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9930000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9434000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10115000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>10536000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4231000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3992000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3897000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3843000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3880000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4149000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5334000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3827000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3402000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3029000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2984000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4725000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3260000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3021000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3244000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2874000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3928000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3336000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3018000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3276000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3197000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3414000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3178000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3378000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3249000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3000000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2876000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3300000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3373000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11731000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11043000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10590000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9987000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11079000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10444000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10567000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9694000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9752000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8373000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7643000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6223000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7669000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6332000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8813000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8994000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8469000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8424000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7798000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7722000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7597000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7051000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6859000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7055000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7076000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6930000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6558000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6815000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>7163000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,97 +1095,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3307000</v>
+      </c>
+      <c r="E12" s="3">
         <v>13320000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4276000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2962000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3511000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2776000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2569000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3061000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2437000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2611000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2404000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2650000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3330000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2054000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2192000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2376000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3203000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2186000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1931000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2061000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2072000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1927000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1794000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2051000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>4136000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1740000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1796000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1265000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1645000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,97 +1277,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>261000</v>
+        <v>199000</v>
       </c>
       <c r="E14" s="3">
-        <v>-475500</v>
+        <v>236000</v>
       </c>
       <c r="F14" s="3">
+        <v>669500</v>
+      </c>
+      <c r="G14" s="3">
         <v>900000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1062000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>258000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>127000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>238000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>168000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1869000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>522000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3762000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>185000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>149000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>168000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1162000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>295000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>159000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>187000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>336000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>589000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>576000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1504000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>567000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>436000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>257000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>291000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4335000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1439,8 +1461,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10216000</v>
+      </c>
+      <c r="E17" s="3">
         <v>20198000</v>
       </c>
-      <c r="E17" s="3">
-        <v>10175500</v>
-      </c>
       <c r="F17" s="3">
+        <v>11320500</v>
+      </c>
+      <c r="G17" s="3">
         <v>10392000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10947000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9668000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10332000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9946000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8338000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9788000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8095000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13746000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8535000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6999000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8148000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9300000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10015000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7561000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8284000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8301000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8427000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8983000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8572000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10211000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7433000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7373000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11464000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>7625000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5746000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5163000</v>
       </c>
-      <c r="E18" s="3">
-        <v>4311500</v>
-      </c>
       <c r="F18" s="3">
+        <v>3166500</v>
+      </c>
+      <c r="G18" s="3">
         <v>3438000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4012000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4925000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5569000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3575000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4816000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1614000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2532000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2798000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2394000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2354000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3909000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2568000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2382000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3399000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3255000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2714000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2493000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2038000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1054000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1861000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>114000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2497000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2061000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1349000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2911000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1680,453 +1712,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E20" s="3">
         <v>105000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-419500</v>
-      </c>
       <c r="F20" s="3">
+        <v>725500</v>
+      </c>
+      <c r="G20" s="3">
         <v>310000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-185000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-198000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-465000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>543000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>646000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>305000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>654000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>460000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>515000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>596000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>141000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>442000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>196000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>93000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>93000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>362000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>242000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>476000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>208000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>275000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>135000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>124000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>173000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>146000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>6951000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4155000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4883000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4640000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4786000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5665000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6224000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4953000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6221000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2609000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4116000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1455000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3716000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3925000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4871000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3946000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3423000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4465000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4174000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3805000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4013000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3506000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2667000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3197000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1543000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3794000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3378000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-21000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E22" s="3">
         <v>277000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>242000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>235000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>244000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>240000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>243000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>209000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>196000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>202000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>199000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>207000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>203000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>209000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>212000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>219000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>231000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>233000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>209000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>203000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>190000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>194000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>185000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>190000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>189000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>193000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>182000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>180000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5620000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5335000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3650000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3513000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3583000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4487000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4861000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3909000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5266000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1717000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2987000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2545000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2706000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2741000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3838000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2791000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2347000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3259000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3067000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2604000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2665000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2086000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1345000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1879000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2439000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2003000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1356000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2887000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E24" s="3">
         <v>637000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>825000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>495000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>330000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>538000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>554000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>85000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>695000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>503000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>238000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>380000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>396000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>619000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>378000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>440000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>615000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>138000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>537000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>707000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>370000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>604000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>317000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>251000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>488000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>447000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-769000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>699000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2214,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4750000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5972000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2825000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3018000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3253000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3949000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4307000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3824000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4571000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1214000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2749000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2614000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2326000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2345000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3219000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2413000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1907000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2644000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2929000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2067000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1958000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1716000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>741000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1562000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-51000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1951000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1556000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-587000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2188000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5975000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2821000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3017000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3248000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3944000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4310000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3820000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4567000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1213000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2738000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2617000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2324000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2341000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3219000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2406000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1901000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2670000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2982000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2116000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1950000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1707000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>736000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1554000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1946000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1551000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-595000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2481,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2492,8 +2552,8 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2505,46 +2565,46 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-62000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>332000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>434000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>523000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>617000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>661000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-50000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-67000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-289000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2552,11 +2612,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-2600000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2570,8 +2630,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-105000</v>
       </c>
-      <c r="E32" s="3">
-        <v>419500</v>
-      </c>
       <c r="F32" s="3">
+        <v>-725500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-310000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>185000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>198000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>465000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-543000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-646000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-305000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-654000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-460000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-515000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-596000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-141000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-442000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-196000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-93000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-93000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-362000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-242000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-476000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-208000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-275000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-135000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-124000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-173000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-146000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5975000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2821000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3017000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3248000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3944000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4310000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3758000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4567000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1545000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3172000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2094000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2941000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3002000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3219000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2356000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1901000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2670000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2915000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1827000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1950000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1707000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>736000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1046000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1946000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1551000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-595000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5975000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2821000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3017000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3248000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3944000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4310000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3758000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4567000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1545000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3172000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2094000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2941000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3002000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3219000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2356000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1901000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2670000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2915000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1827000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1950000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1707000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>736000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1046000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1946000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1551000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-595000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,120 +3349,124 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5660000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9707000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12694000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11145000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9675000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8556000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8096000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10016000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8575000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6981000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8062000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7356000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11103000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7425000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9676000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7869000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6659000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8076000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7965000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7826000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5310000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4483000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6092000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7901000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7786000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11708000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6515000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7907000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E42" s="3">
         <v>718000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>680000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>498000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>103000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>453000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>372000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -3388,8 +3477,8 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3398,675 +3487,699 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>7000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>774000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>149000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>446000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>722000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>899000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2459000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2284000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2863000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2406000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3294000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>4181000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>3541000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7826000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>5160000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11485000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11748000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11104000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10110000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10118000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10334000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10473000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9230000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8571000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7843000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8235000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7851000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8422000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7577000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8182000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6778000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8442000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7964000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7608000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7071000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7374000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7287000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7245000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6873000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7671000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7439000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7066000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7018000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>7364000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6131000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5930000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5863000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5911000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5614000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5535000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5774000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5953000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5603000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5499000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6402000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6310000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6128000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6056000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5846000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5978000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5855000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5847000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5712000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5440000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5416000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5178000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5382000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5096000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>5263000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>5407000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>5146000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>4866000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>5244000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5565000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5921000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6048000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6509000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6581000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6119000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6009000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6987000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6868000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6748000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5291000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5541000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4671000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4607000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4714000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4277000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3827000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3382000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3233000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4500000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3761000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4005000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4112000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4299000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3790000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3354000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4069000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4389000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3765000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31954000</v>
+      </c>
+      <c r="E46" s="3">
         <v>29977000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>33402000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35722000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33561000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32116000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31184000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30266000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31058000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28665000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26909000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27764000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26577000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29343000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26174000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27483000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26142000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24298000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25351000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25875000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26836000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24064000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>24085000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>24766000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27919000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>28167000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>31530000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>30614000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>29440000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2636000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2785000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2957000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2445000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2344000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1714000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2159000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>966000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1013000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1105000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1195000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1371000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1880000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1738000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1005000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1469000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2111000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3779000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5621000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6233000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7606000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>10033000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11033000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12892000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12206000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12138000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>11896000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>12131000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>11657000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22526000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22231000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21758000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21422000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20424000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20059000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19747000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19279000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18565000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18064000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18295000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17986000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16919000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15789000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15269000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16126000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15372000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14925000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13506000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13291000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12755000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12626000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12561000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12439000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12189000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12094000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12042000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12026000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>12029000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40382000</v>
+      </c>
+      <c r="E49" s="3">
         <v>40860000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>41066000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>41473000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>42528000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>43710000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>44280000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44197000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32246000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32495000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34613000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>34842000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36925000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36633000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35863000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>33621000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31787000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>32871000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29169000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29684000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30433000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31172000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>31804000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>32467000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>33478000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34477000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35221000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>35467000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>38766000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9229000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8616000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8613000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8098000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8224000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9496000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9298000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10986000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10612000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10359000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9835000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9625000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7499000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7112000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6602000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5698000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7919000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8092000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8707000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7554000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7500000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7145000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6558000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5308000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5884000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>5928000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5872000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5139000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>6443000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>106727000</v>
+      </c>
+      <c r="E54" s="3">
         <v>104469000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>107796000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109160000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>107081000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>107095000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>106668000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105694000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93494000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90688000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90847000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91588000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89800000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90615000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84913000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84397000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83331000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>83965000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82354000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82637000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>85130000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>85040000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>86041000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>87872000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>91676000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>92804000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>96561000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>95377000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>98335000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4705,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3509000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3442000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3680000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4264000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3371000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3482000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3715000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4609000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3366000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3897000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4034000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4594000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3744000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3448000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3572000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3738000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3198000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3142000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3018000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3318000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3091000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3024000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3162000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3102000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2620000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2934000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>2484000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2807000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2481000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2839000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2672000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1946000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1936000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2979000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1208000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2412000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3534000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2488000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7251000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6431000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2420000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4718000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6361000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3610000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3411000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3816000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3175000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5308000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3656000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3379000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2055000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3057000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5157000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3181000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5037000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>568000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1487000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18698000</v>
+      </c>
+      <c r="E59" s="3">
         <v>17113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16779000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18029000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17691000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16707000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17393000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16851000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16828000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15521000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15076000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16302000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14241000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14012000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13550000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14872000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14075000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13127000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12350000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13580000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11839000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11725000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11743000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12455000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11690000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12643000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>12302000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>13829000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>11587000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23094000</v>
+      </c>
+      <c r="E60" s="3">
         <v>23394000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23131000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24239000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22998000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23168000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22316000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23872000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23728000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21906000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26361000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27327000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20405000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22178000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23483000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22220000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20684000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20085000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18543000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22206000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18586000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18128000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16960000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>18614000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19467000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>18758000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19823000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>17204000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>15555000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33972000</v>
+      </c>
+      <c r="E61" s="3">
         <v>34072000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28074000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28745000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28482000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>28684000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30586000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>30690000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22907000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24033000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24002000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25360000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26321000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26156000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21637000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22736000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22677000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22771000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22721000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19806000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19936000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19959000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21501000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21353000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>21838000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>21706000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>23437000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>24274000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>23656000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8361000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8261000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>9686000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10118000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11077000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11925000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12813000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12875000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10996000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11361000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13445000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13497000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13804000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14537000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13493000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13440000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13045000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13372000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13420000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13743000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13952000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14187000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13679000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13336000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11872000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>12628000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>13213000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>13591000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>15167000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5288,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65481000</v>
+      </c>
+      <c r="E66" s="3">
         <v>65776000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60962000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63169000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62623000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63852000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65785000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67510000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57700000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57394000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63902000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>66271000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60614000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62973000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58708000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58490000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56493000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56330000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>54815000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55936000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>52708000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>52511000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>52373000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53536000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>53428000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>53341000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>56724000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>55289000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>54591000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57082000</v>
+      </c>
+      <c r="E72" s="3">
         <v>54198000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>62039000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>61081000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>59928000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58437000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>56252000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53696000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51691000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48777000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48888000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47362000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49724000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48272000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46602000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45804000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45295000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44065000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42579000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42189000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>41523000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>41107000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>41350000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>43701000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>45046000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>44387000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>44133000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>46028000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41246000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38693000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46834000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45991000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44458000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>43243000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40883000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38184000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35794000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33294000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26945000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25317000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29186000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27642000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26205000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25907000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26838000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27635000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27539000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26701000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32422000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>32529000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33668000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34336000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>38248000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39463000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>39837000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>40088000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>43744000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5975000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2821000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3017000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3248000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3944000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4310000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3758000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4567000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1545000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3172000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2094000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2941000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3002000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3219000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2356000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1901000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2670000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2915000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1827000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1950000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1707000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>736000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1046000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-56000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1946000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1551000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-595000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>2184000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6802,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E83" s="3">
         <v>903000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>991000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>892000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>959000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>938000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1120000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>835000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>759000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>690000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>930000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1328000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1257000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2036000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>821000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>936000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>845000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>973000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>898000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>998000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1158000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1226000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1137000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1128000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1154000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1162000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1193000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1155000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7717000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3704000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4430000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5602000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4302000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4761000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5031000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4797000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2490000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1791000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4006000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2173000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3367000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>707000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4794000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4226000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3084000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1336000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3592000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2793000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3382000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1155000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4015000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1171000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3317000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>286000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3632000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2971000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-902000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-965000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1007000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1149000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1126000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1129000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-984000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1208000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-934000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1134000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1431000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1445000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-567000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-986000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1137000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-959000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-782000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-595000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-929000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-653000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-583000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-450000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-715000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-441000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-393000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-339000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-551000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-409000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11443000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2359000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-962000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1077000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1173000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12049000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1061000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2707000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-738000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4778000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2155000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-882000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1628000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-763000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>191000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2425000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>368000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2178000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1660000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>673000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-197000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-58000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>671000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3193000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2563000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-890000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,97 +7882,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1855000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1885000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1853000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1750000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1747000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1770000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1745000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1643000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1649000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1673000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1645000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1542000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1545000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1577000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1551000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1405000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1394000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1468000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1428000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1277000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1285000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1311000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1299000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-1283000</v>
       </c>
       <c r="AA96" s="3">
         <v>-1283000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-1283000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1307000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-1294000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-1271000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-1274000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8248,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4269000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3758000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2054000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1554000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2702000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1777000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3086000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5207000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2274000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1758000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2098000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1372000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3851000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1490000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2011000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3152000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2084000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1614000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5566000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2967000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2722000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5785000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>536000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6218000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1461000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1977000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-835000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-93000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>87000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>366000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-412000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-309000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-55000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-68000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>78000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-97000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>164000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>87000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>65000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-63000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>43000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-54000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-65000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-32000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-262000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>154000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>19000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>79000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>106000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>253000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-484000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2957000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4074000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2987000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1494000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1526000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1139000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>447000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1879000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1416000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1619000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1142000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>764000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3746000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3687000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2474000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2063000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1211000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1417000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>110000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>139000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2516000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>826000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1610000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1809000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>115000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3922000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>5193000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1392000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1299000</v>
       </c>
     </row>
